--- a/projects/cs2200-project-2-early/microcode.xlsx
+++ b/projects/cs2200-project-2-early/microcode.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/swen45_gatech_edu/Documents/Desktop/Study/CS2200 TA/Fall23/Projects/cs2200-project-2-early/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruh\Documents\GT\Fall 2023\CS_2200\projects\cs2200-project-2-early\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{1A3EBE64-D151-7A45-AFAE-D434CF88F1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D96E3BD-0B25-4C95-A87B-272BE75BECD8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B70C43-8114-456A-9421-C96D827B09BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
   <si>
     <t>Index</t>
   </si>
@@ -217,6 +217,132 @@
   <si>
     <t>DrALU2</t>
   </si>
+  <si>
+    <t>ifetch1</t>
+  </si>
+  <si>
+    <t>ifetch2</t>
+  </si>
+  <si>
+    <t>ifetch3</t>
+  </si>
+  <si>
+    <t>add1</t>
+  </si>
+  <si>
+    <t>add2</t>
+  </si>
+  <si>
+    <t>add3</t>
+  </si>
+  <si>
+    <t>nand1</t>
+  </si>
+  <si>
+    <t>nand2</t>
+  </si>
+  <si>
+    <t>nand3</t>
+  </si>
+  <si>
+    <t>addi1</t>
+  </si>
+  <si>
+    <t>addi2</t>
+  </si>
+  <si>
+    <t>addi3</t>
+  </si>
+  <si>
+    <t>lw1</t>
+  </si>
+  <si>
+    <t>lw2</t>
+  </si>
+  <si>
+    <t>lw3</t>
+  </si>
+  <si>
+    <t>lw4</t>
+  </si>
+  <si>
+    <t>sw1</t>
+  </si>
+  <si>
+    <t>sw2</t>
+  </si>
+  <si>
+    <t>sw3</t>
+  </si>
+  <si>
+    <t>sw4</t>
+  </si>
+  <si>
+    <t>beq1</t>
+  </si>
+  <si>
+    <t>beq2</t>
+  </si>
+  <si>
+    <t>beq3</t>
+  </si>
+  <si>
+    <t>beg3.5</t>
+  </si>
+  <si>
+    <t>beq4</t>
+  </si>
+  <si>
+    <t>beq5</t>
+  </si>
+  <si>
+    <t>beq6</t>
+  </si>
+  <si>
+    <t>jalr1</t>
+  </si>
+  <si>
+    <t>jalr2</t>
+  </si>
+  <si>
+    <t>halt</t>
+  </si>
+  <si>
+    <t>blt1</t>
+  </si>
+  <si>
+    <t>blt2</t>
+  </si>
+  <si>
+    <t>blt3</t>
+  </si>
+  <si>
+    <t>blt4</t>
+  </si>
+  <si>
+    <t>lea1</t>
+  </si>
+  <si>
+    <t>lea2</t>
+  </si>
+  <si>
+    <t>lea3</t>
+  </si>
+  <si>
+    <t>bgt1</t>
+  </si>
+  <si>
+    <t>bgt2</t>
+  </si>
+  <si>
+    <t>or1</t>
+  </si>
+  <si>
+    <t>or2</t>
+  </si>
+  <si>
+    <t>or3</t>
+  </si>
 </sst>
 </file>
 
@@ -310,7 +436,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,12 +458,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -527,9 +647,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -567,17 +684,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -597,7 +705,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -621,39 +729,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -956,9 +1045,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="81" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M78" sqref="M78:P79"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI2" sqref="AI2:AI57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -981,21 +1070,21 @@
     <col min="46" max="1030" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="30.7" customHeight="1">
+    <row r="1" spans="1:45" ht="30.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1094,7 +1183,9 @@
       <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
@@ -1111,97 +1202,99 @@
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2:I57" si="0">BIN2DEC(_xlfn.CONCAT(C2:H2))</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="32">
-        <v>0</v>
-      </c>
-      <c r="K2" s="18">
-        <v>0</v>
-      </c>
-      <c r="L2" s="18">
-        <v>0</v>
-      </c>
-      <c r="M2" s="18">
-        <v>0</v>
-      </c>
-      <c r="N2" s="32">
-        <v>0</v>
-      </c>
-      <c r="O2" s="18">
-        <v>0</v>
-      </c>
-      <c r="P2" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="18">
-        <v>0</v>
-      </c>
-      <c r="R2" s="32">
-        <v>0</v>
-      </c>
-      <c r="S2" s="32">
-        <v>0</v>
-      </c>
-      <c r="T2" s="18">
-        <v>0</v>
-      </c>
-      <c r="U2" s="18">
-        <v>0</v>
-      </c>
-      <c r="V2" s="18">
-        <v>0</v>
-      </c>
-      <c r="W2" s="18">
-        <v>0</v>
-      </c>
-      <c r="X2" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="18">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2">
         <v>0</v>
       </c>
       <c r="AC2" s="18">
         <v>0</v>
       </c>
-      <c r="AD2" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="23">
+      <c r="AD2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="22">
         <v>0</v>
       </c>
       <c r="AI2" s="7" t="str">
         <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AH2, AG2, AF2),1),       BIN2HEX(_xlfn.CONCAT(AE2, AD2, AC2, AB2),1),     BIN2HEX(_xlfn.CONCAT(AA2,Z2,Y2, X2),1),     BIN2HEX(_xlfn.CONCAT(W2,V2,U2, T2),1),     BIN2HEX(_xlfn.CONCAT(S2,R2,Q2, P2),1),     BIN2HEX(_xlfn.CONCAT(O2,N2, M2, L2),1),     BIN2HEX(_xlfn.CONCAT(K2,J2,C2,D2),1),     BIN2HEX(_xlfn.CONCAT(E2,F2,G2,H2),1) )</f>
-        <v>00000000</v>
+        <v>0000C401</v>
       </c>
     </row>
     <row r="3" spans="1:45" ht="14.25" customHeight="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
@@ -1215,100 +1308,102 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J3" s="32">
-        <v>0</v>
-      </c>
-      <c r="K3" s="18">
-        <v>0</v>
-      </c>
-      <c r="L3" s="18">
-        <v>0</v>
-      </c>
-      <c r="M3" s="18">
-        <v>0</v>
-      </c>
-      <c r="N3" s="32">
-        <v>0</v>
-      </c>
-      <c r="O3" s="18">
-        <v>0</v>
-      </c>
-      <c r="P3" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="18">
-        <v>0</v>
-      </c>
-      <c r="R3" s="32">
-        <v>0</v>
-      </c>
-      <c r="S3" s="32">
-        <v>0</v>
-      </c>
-      <c r="T3" s="18">
-        <v>0</v>
-      </c>
-      <c r="U3" s="18">
-        <v>0</v>
-      </c>
-      <c r="V3" s="18">
-        <v>0</v>
-      </c>
-      <c r="W3" s="18">
-        <v>0</v>
-      </c>
-      <c r="X3" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="18">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2">
         <v>0</v>
       </c>
       <c r="AC3" s="18">
         <v>0</v>
       </c>
-      <c r="AD3" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="23">
+      <c r="AD3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="22">
         <v>0</v>
       </c>
       <c r="AI3" s="7" t="str">
         <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AH3, AG3, AF3),1),       BIN2HEX(_xlfn.CONCAT(AE3, AD3, AC3, AB3),1),     BIN2HEX(_xlfn.CONCAT(AA3,Z3,Y3, X3),1),     BIN2HEX(_xlfn.CONCAT(W3,V3,U3, T3),1),     BIN2HEX(_xlfn.CONCAT(S3,R3,Q3, P3),1),     BIN2HEX(_xlfn.CONCAT(O3,N3, M3, L3),1),     BIN2HEX(_xlfn.CONCAT(K3,J3,C3,D3),1),     BIN2HEX(_xlfn.CONCAT(E3,F3,G3,H3),1) )</f>
-        <v>00000000</v>
+        <v>00002082</v>
       </c>
     </row>
     <row r="4" spans="1:45" ht="14.25" customHeight="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="C4" s="2">
         <v>0</v>
       </c>
@@ -1331,84 +1426,84 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4" s="32">
-        <v>0</v>
-      </c>
-      <c r="K4" s="18">
-        <v>0</v>
-      </c>
-      <c r="L4" s="18">
-        <v>0</v>
-      </c>
-      <c r="M4" s="18">
-        <v>0</v>
-      </c>
-      <c r="N4" s="32">
-        <v>0</v>
-      </c>
-      <c r="O4" s="18">
-        <v>0</v>
-      </c>
-      <c r="P4" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="18">
-        <v>0</v>
-      </c>
-      <c r="R4" s="32">
-        <v>0</v>
-      </c>
-      <c r="S4" s="32">
-        <v>0</v>
-      </c>
-      <c r="T4" s="18">
-        <v>0</v>
-      </c>
-      <c r="U4" s="18">
-        <v>0</v>
-      </c>
-      <c r="V4" s="18">
-        <v>0</v>
-      </c>
-      <c r="W4" s="18">
-        <v>0</v>
-      </c>
-      <c r="X4" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="18">
-        <v>0</v>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>1</v>
       </c>
       <c r="AC4" s="18">
         <v>0</v>
       </c>
-      <c r="AD4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="23">
+      <c r="AD4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="22">
         <v>0</v>
       </c>
       <c r="AI4" s="7" t="str">
         <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AH4, AG4, AF4),1),       BIN2HEX(_xlfn.CONCAT(AE4, AD4, AC4, AB4),1),     BIN2HEX(_xlfn.CONCAT(AA4,Z4,Y4, X4),1),     BIN2HEX(_xlfn.CONCAT(W4,V4,U4, T4),1),     BIN2HEX(_xlfn.CONCAT(S4,R4,Q4, P4),1),     BIN2HEX(_xlfn.CONCAT(O4,N4, M4, L4),1),     BIN2HEX(_xlfn.CONCAT(K4,J4,C4,D4),1),     BIN2HEX(_xlfn.CONCAT(E4,F4,G4,H4),1) )</f>
-        <v>00000000</v>
+        <v>01C01100</v>
       </c>
     </row>
     <row r="5" spans="1:45" ht="14.25" customHeight="1">
@@ -1416,7 +1511,9 @@
         <f t="shared" ref="A5:A57" si="1">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
@@ -1427,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -1437,86 +1534,86 @@
       </c>
       <c r="I5" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="32">
-        <v>0</v>
-      </c>
-      <c r="K5" s="18">
-        <v>0</v>
-      </c>
-      <c r="L5" s="18">
-        <v>0</v>
-      </c>
-      <c r="M5" s="18">
-        <v>0</v>
-      </c>
-      <c r="N5" s="32">
-        <v>0</v>
-      </c>
-      <c r="O5" s="18">
-        <v>0</v>
-      </c>
-      <c r="P5" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="18">
-        <v>0</v>
-      </c>
-      <c r="R5" s="32">
-        <v>0</v>
-      </c>
-      <c r="S5" s="32">
-        <v>0</v>
-      </c>
-      <c r="T5" s="18">
-        <v>0</v>
-      </c>
-      <c r="U5" s="18">
-        <v>0</v>
-      </c>
-      <c r="V5" s="18">
-        <v>0</v>
-      </c>
-      <c r="W5" s="18">
-        <v>0</v>
-      </c>
-      <c r="X5" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="18">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2">
         <v>0</v>
       </c>
       <c r="AC5" s="18">
         <v>0</v>
       </c>
-      <c r="AD5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="23">
+      <c r="AD5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="22">
         <v>0</v>
       </c>
       <c r="AI5" s="7" t="str">
         <f t="shared" ref="AI5:AI57" si="2">_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AH5, AG5, AF5),1),       BIN2HEX(_xlfn.CONCAT(AE5, AD5, AC5, AB5),1),     BIN2HEX(_xlfn.CONCAT(AA5,Z5,Y5, X5),1),     BIN2HEX(_xlfn.CONCAT(W5,V5,U5, T5),1),     BIN2HEX(_xlfn.CONCAT(S5,R5,Q5, P5),1),     BIN2HEX(_xlfn.CONCAT(O5,N5, M5, L5),1),     BIN2HEX(_xlfn.CONCAT(K5,J5,C5,D5),1),     BIN2HEX(_xlfn.CONCAT(E5,F5,G5,H5),1) )</f>
-        <v>00000000</v>
+        <v>00108044</v>
       </c>
     </row>
     <row r="6" spans="1:45" ht="14.25" customHeight="1">
@@ -1524,7 +1621,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C6" s="2">
         <v>0</v>
       </c>
@@ -1535,96 +1634,96 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="32">
-        <v>0</v>
-      </c>
-      <c r="K6" s="18">
-        <v>0</v>
-      </c>
-      <c r="L6" s="18">
-        <v>0</v>
-      </c>
-      <c r="M6" s="18">
-        <v>0</v>
-      </c>
-      <c r="N6" s="32">
-        <v>0</v>
-      </c>
-      <c r="O6" s="18">
-        <v>0</v>
-      </c>
-      <c r="P6" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="18">
-        <v>0</v>
-      </c>
-      <c r="R6" s="32">
-        <v>0</v>
-      </c>
-      <c r="S6" s="32">
-        <v>0</v>
-      </c>
-      <c r="T6" s="18">
-        <v>0</v>
-      </c>
-      <c r="U6" s="18">
-        <v>0</v>
-      </c>
-      <c r="V6" s="18">
-        <v>0</v>
-      </c>
-      <c r="W6" s="18">
-        <v>0</v>
-      </c>
-      <c r="X6" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="18">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
         <v>0</v>
       </c>
       <c r="AC6" s="18">
         <v>0</v>
       </c>
-      <c r="AD6" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="23">
+      <c r="AD6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="22">
         <v>0</v>
       </c>
       <c r="AI6" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00210045</v>
       </c>
     </row>
     <row r="7" spans="1:45" ht="14.25" customHeight="1">
@@ -1632,7 +1731,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
@@ -1655,84 +1756,84 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="32">
-        <v>0</v>
-      </c>
-      <c r="K7" s="18">
-        <v>0</v>
-      </c>
-      <c r="L7" s="18">
-        <v>0</v>
-      </c>
-      <c r="M7" s="18">
-        <v>0</v>
-      </c>
-      <c r="N7" s="32">
-        <v>0</v>
-      </c>
-      <c r="O7" s="18">
-        <v>0</v>
-      </c>
-      <c r="P7" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>0</v>
-      </c>
-      <c r="R7" s="32">
-        <v>0</v>
-      </c>
-      <c r="S7" s="32">
-        <v>0</v>
-      </c>
-      <c r="T7" s="18">
-        <v>0</v>
-      </c>
-      <c r="U7" s="18">
-        <v>0</v>
-      </c>
-      <c r="V7" s="18">
-        <v>0</v>
-      </c>
-      <c r="W7" s="18">
-        <v>0</v>
-      </c>
-      <c r="X7" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="18">
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
         <v>0</v>
       </c>
       <c r="AC7" s="18">
         <v>0</v>
       </c>
-      <c r="AD7" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="23">
+      <c r="AD7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="22">
         <v>0</v>
       </c>
       <c r="AI7" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00040100</v>
       </c>
     </row>
     <row r="8" spans="1:45" ht="14.25" customHeight="1">
@@ -1740,7 +1841,9 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
@@ -1751,96 +1854,96 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="32">
-        <v>0</v>
-      </c>
-      <c r="K8" s="18">
-        <v>0</v>
-      </c>
-      <c r="L8" s="18">
-        <v>0</v>
-      </c>
-      <c r="M8" s="18">
-        <v>0</v>
-      </c>
-      <c r="N8" s="32">
-        <v>0</v>
-      </c>
-      <c r="O8" s="18">
-        <v>0</v>
-      </c>
-      <c r="P8" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="18">
-        <v>0</v>
-      </c>
-      <c r="R8" s="32">
-        <v>0</v>
-      </c>
-      <c r="S8" s="32">
-        <v>0</v>
-      </c>
-      <c r="T8" s="18">
-        <v>0</v>
-      </c>
-      <c r="U8" s="18">
-        <v>0</v>
-      </c>
-      <c r="V8" s="18">
-        <v>0</v>
-      </c>
-      <c r="W8" s="18">
-        <v>0</v>
-      </c>
-      <c r="X8" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="18">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2">
         <v>0</v>
       </c>
       <c r="AC8" s="18">
         <v>0</v>
       </c>
-      <c r="AD8" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="23">
+      <c r="AD8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="22">
         <v>0</v>
       </c>
       <c r="AI8" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00108047</v>
       </c>
     </row>
     <row r="9" spans="1:45" ht="14.25" customHeight="1">
@@ -1848,7 +1951,9 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C9" s="2">
         <v>0</v>
       </c>
@@ -1856,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -1869,86 +1974,86 @@
       </c>
       <c r="I9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="32">
-        <v>0</v>
-      </c>
-      <c r="K9" s="18">
-        <v>0</v>
-      </c>
-      <c r="L9" s="18">
-        <v>0</v>
-      </c>
-      <c r="M9" s="18">
-        <v>0</v>
-      </c>
-      <c r="N9" s="32">
-        <v>0</v>
-      </c>
-      <c r="O9" s="18">
-        <v>0</v>
-      </c>
-      <c r="P9" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>0</v>
-      </c>
-      <c r="R9" s="32">
-        <v>0</v>
-      </c>
-      <c r="S9" s="32">
-        <v>0</v>
-      </c>
-      <c r="T9" s="18">
-        <v>0</v>
-      </c>
-      <c r="U9" s="18">
-        <v>0</v>
-      </c>
-      <c r="V9" s="18">
-        <v>0</v>
-      </c>
-      <c r="W9" s="18">
-        <v>0</v>
-      </c>
-      <c r="X9" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="18">
+        <v>8</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>1</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2">
         <v>0</v>
       </c>
       <c r="AC9" s="18">
         <v>0</v>
       </c>
-      <c r="AD9" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="23">
+      <c r="AD9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="22">
         <v>0</v>
       </c>
       <c r="AI9" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00210048</v>
       </c>
     </row>
     <row r="10" spans="1:45" ht="14.25" customHeight="1">
@@ -1956,7 +2061,9 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C10" s="2">
         <v>0</v>
       </c>
@@ -1979,84 +2086,84 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="32">
-        <v>0</v>
-      </c>
-      <c r="K10" s="18">
-        <v>0</v>
-      </c>
-      <c r="L10" s="18">
-        <v>0</v>
-      </c>
-      <c r="M10" s="18">
-        <v>0</v>
-      </c>
-      <c r="N10" s="32">
-        <v>0</v>
-      </c>
-      <c r="O10" s="18">
-        <v>0</v>
-      </c>
-      <c r="P10" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="18">
-        <v>0</v>
-      </c>
-      <c r="R10" s="32">
-        <v>0</v>
-      </c>
-      <c r="S10" s="32">
-        <v>0</v>
-      </c>
-      <c r="T10" s="18">
-        <v>0</v>
-      </c>
-      <c r="U10" s="18">
-        <v>0</v>
-      </c>
-      <c r="V10" s="18">
-        <v>0</v>
-      </c>
-      <c r="W10" s="18">
-        <v>0</v>
-      </c>
-      <c r="X10" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="18">
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="2">
         <v>0</v>
       </c>
       <c r="AC10" s="18">
         <v>0</v>
       </c>
-      <c r="AD10" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="23">
+      <c r="AD10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="22">
         <v>0</v>
       </c>
       <c r="AI10" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00840100</v>
       </c>
     </row>
     <row r="11" spans="1:45" ht="14.25" customHeight="1">
@@ -2064,7 +2171,9 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C11" s="2">
         <v>0</v>
       </c>
@@ -2072,99 +2181,99 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="32">
-        <v>0</v>
-      </c>
-      <c r="K11" s="18">
-        <v>0</v>
-      </c>
-      <c r="L11" s="18">
-        <v>0</v>
-      </c>
-      <c r="M11" s="18">
-        <v>0</v>
-      </c>
-      <c r="N11" s="32">
-        <v>0</v>
-      </c>
-      <c r="O11" s="18">
-        <v>0</v>
-      </c>
-      <c r="P11" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="18">
-        <v>0</v>
-      </c>
-      <c r="R11" s="32">
-        <v>0</v>
-      </c>
-      <c r="S11" s="32">
-        <v>0</v>
-      </c>
-      <c r="T11" s="18">
-        <v>0</v>
-      </c>
-      <c r="U11" s="18">
-        <v>0</v>
-      </c>
-      <c r="V11" s="18">
-        <v>0</v>
-      </c>
-      <c r="W11" s="18">
-        <v>0</v>
-      </c>
-      <c r="X11" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="18">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2">
         <v>0</v>
       </c>
       <c r="AC11" s="18">
         <v>0</v>
       </c>
-      <c r="AD11" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="23">
+      <c r="AD11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="22">
         <v>0</v>
       </c>
       <c r="AI11" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>0000880A</v>
       </c>
     </row>
     <row r="12" spans="1:45" ht="14.25" customHeight="1">
@@ -2172,7 +2281,9 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C12" s="2">
         <v>0</v>
       </c>
@@ -2180,99 +2291,99 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="32">
-        <v>0</v>
-      </c>
-      <c r="K12" s="18">
-        <v>0</v>
-      </c>
-      <c r="L12" s="18">
-        <v>0</v>
-      </c>
-      <c r="M12" s="18">
-        <v>0</v>
-      </c>
-      <c r="N12" s="32">
-        <v>0</v>
-      </c>
-      <c r="O12" s="18">
-        <v>0</v>
-      </c>
-      <c r="P12" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="18">
-        <v>0</v>
-      </c>
-      <c r="R12" s="32">
-        <v>0</v>
-      </c>
-      <c r="S12" s="32">
-        <v>0</v>
-      </c>
-      <c r="T12" s="18">
-        <v>0</v>
-      </c>
-      <c r="U12" s="18">
-        <v>0</v>
-      </c>
-      <c r="V12" s="18">
-        <v>0</v>
-      </c>
-      <c r="W12" s="18">
-        <v>0</v>
-      </c>
-      <c r="X12" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="18">
+        <v>11</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2">
         <v>0</v>
       </c>
       <c r="AC12" s="18">
         <v>0</v>
       </c>
-      <c r="AD12" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="23">
+      <c r="AD12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="22">
         <v>0</v>
       </c>
       <c r="AI12" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>0011004B</v>
       </c>
     </row>
     <row r="13" spans="1:45" ht="14.25" customHeight="1">
@@ -2280,7 +2391,9 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="C13" s="2">
         <v>0</v>
       </c>
@@ -2303,84 +2416,84 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="32">
-        <v>0</v>
-      </c>
-      <c r="K13" s="18">
-        <v>0</v>
-      </c>
-      <c r="L13" s="18">
-        <v>0</v>
-      </c>
-      <c r="M13" s="18">
-        <v>0</v>
-      </c>
-      <c r="N13" s="32">
-        <v>0</v>
-      </c>
-      <c r="O13" s="18">
-        <v>0</v>
-      </c>
-      <c r="P13" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="18">
-        <v>0</v>
-      </c>
-      <c r="R13" s="32">
-        <v>0</v>
-      </c>
-      <c r="S13" s="32">
-        <v>0</v>
-      </c>
-      <c r="T13" s="18">
-        <v>0</v>
-      </c>
-      <c r="U13" s="18">
-        <v>0</v>
-      </c>
-      <c r="V13" s="18">
-        <v>0</v>
-      </c>
-      <c r="W13" s="18">
-        <v>0</v>
-      </c>
-      <c r="X13" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="18">
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="2">
         <v>0</v>
       </c>
       <c r="AC13" s="18">
         <v>0</v>
       </c>
-      <c r="AD13" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="23">
+      <c r="AD13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="22">
         <v>0</v>
       </c>
       <c r="AI13" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00040100</v>
       </c>
     </row>
     <row r="14" spans="1:45" ht="14.25" customHeight="1">
@@ -2388,7 +2501,9 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C14" s="2">
         <v>0</v>
       </c>
@@ -2396,99 +2511,99 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="32">
-        <v>0</v>
-      </c>
-      <c r="K14" s="18">
-        <v>0</v>
-      </c>
-      <c r="L14" s="18">
-        <v>0</v>
-      </c>
-      <c r="M14" s="18">
-        <v>0</v>
-      </c>
-      <c r="N14" s="32">
-        <v>0</v>
-      </c>
-      <c r="O14" s="18">
-        <v>0</v>
-      </c>
-      <c r="P14" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="18">
-        <v>0</v>
-      </c>
-      <c r="R14" s="32">
-        <v>0</v>
-      </c>
-      <c r="S14" s="32">
-        <v>0</v>
-      </c>
-      <c r="T14" s="18">
-        <v>0</v>
-      </c>
-      <c r="U14" s="18">
-        <v>0</v>
-      </c>
-      <c r="V14" s="18">
-        <v>0</v>
-      </c>
-      <c r="W14" s="18">
-        <v>0</v>
-      </c>
-      <c r="X14" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="18">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>1</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="2">
         <v>0</v>
       </c>
       <c r="AC14" s="18">
         <v>0</v>
       </c>
-      <c r="AD14" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="23">
+      <c r="AD14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="22">
         <v>0</v>
       </c>
       <c r="AI14" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>0000880D</v>
       </c>
     </row>
     <row r="15" spans="1:45" ht="14.25" customHeight="1">
@@ -2496,7 +2611,9 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C15" s="2">
         <v>0</v>
       </c>
@@ -2504,99 +2621,99 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="32">
-        <v>0</v>
-      </c>
-      <c r="K15" s="18">
-        <v>0</v>
-      </c>
-      <c r="L15" s="18">
-        <v>0</v>
-      </c>
-      <c r="M15" s="18">
-        <v>0</v>
-      </c>
-      <c r="N15" s="32">
-        <v>0</v>
-      </c>
-      <c r="O15" s="18">
-        <v>0</v>
-      </c>
-      <c r="P15" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="18">
-        <v>0</v>
-      </c>
-      <c r="R15" s="32">
-        <v>0</v>
-      </c>
-      <c r="S15" s="32">
-        <v>0</v>
-      </c>
-      <c r="T15" s="18">
-        <v>0</v>
-      </c>
-      <c r="U15" s="18">
-        <v>0</v>
-      </c>
-      <c r="V15" s="18">
-        <v>0</v>
-      </c>
-      <c r="W15" s="18">
-        <v>0</v>
-      </c>
-      <c r="X15" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="18">
+        <v>14</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>1</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="2">
         <v>0</v>
       </c>
       <c r="AC15" s="18">
         <v>0</v>
       </c>
-      <c r="AD15" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="23">
+      <c r="AD15" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="22">
         <v>0</v>
       </c>
       <c r="AI15" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>0011004E</v>
       </c>
     </row>
     <row r="16" spans="1:45" ht="14.25" customHeight="1">
@@ -2604,7 +2721,9 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="C16" s="2">
         <v>0</v>
       </c>
@@ -2612,99 +2731,99 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="32">
-        <v>0</v>
-      </c>
-      <c r="K16" s="18">
-        <v>0</v>
-      </c>
-      <c r="L16" s="18">
-        <v>0</v>
-      </c>
-      <c r="M16" s="18">
-        <v>0</v>
-      </c>
-      <c r="N16" s="32">
-        <v>0</v>
-      </c>
-      <c r="O16" s="18">
-        <v>0</v>
-      </c>
-      <c r="P16" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="18">
-        <v>0</v>
-      </c>
-      <c r="R16" s="32">
-        <v>0</v>
-      </c>
-      <c r="S16" s="32">
-        <v>0</v>
-      </c>
-      <c r="T16" s="18">
-        <v>0</v>
-      </c>
-      <c r="U16" s="18">
-        <v>0</v>
-      </c>
-      <c r="V16" s="18">
-        <v>0</v>
-      </c>
-      <c r="W16" s="18">
-        <v>0</v>
-      </c>
-      <c r="X16" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="18">
+        <v>15</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>1</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="2">
         <v>0</v>
       </c>
       <c r="AC16" s="18">
         <v>0</v>
       </c>
-      <c r="AD16" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="23">
+      <c r="AD16" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="22">
         <v>0</v>
       </c>
       <c r="AI16" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>0000410F</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="14.25" customHeight="1">
@@ -2712,7 +2831,9 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="C17" s="2">
         <v>0</v>
       </c>
@@ -2735,84 +2856,84 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="32">
-        <v>0</v>
-      </c>
-      <c r="K17" s="18">
-        <v>0</v>
-      </c>
-      <c r="L17" s="18">
-        <v>0</v>
-      </c>
-      <c r="M17" s="18">
-        <v>0</v>
-      </c>
-      <c r="N17" s="32">
-        <v>0</v>
-      </c>
-      <c r="O17" s="18">
-        <v>0</v>
-      </c>
-      <c r="P17" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="18">
-        <v>0</v>
-      </c>
-      <c r="R17" s="32">
-        <v>0</v>
-      </c>
-      <c r="S17" s="32">
-        <v>0</v>
-      </c>
-      <c r="T17" s="18">
-        <v>0</v>
-      </c>
-      <c r="U17" s="18">
-        <v>0</v>
-      </c>
-      <c r="V17" s="18">
-        <v>0</v>
-      </c>
-      <c r="W17" s="18">
-        <v>0</v>
-      </c>
-      <c r="X17" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="18">
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>1</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="2">
         <v>0</v>
       </c>
       <c r="AC17" s="18">
         <v>0</v>
       </c>
-      <c r="AD17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="23">
+      <c r="AD17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="22">
         <v>0</v>
       </c>
       <c r="AI17" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00040080</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="14.25" customHeight="1">
@@ -2820,12 +2941,14 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="C18" s="2">
         <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -2837,90 +2960,90 @@
         <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="32">
-        <v>0</v>
-      </c>
-      <c r="K18" s="18">
-        <v>0</v>
-      </c>
-      <c r="L18" s="18">
-        <v>0</v>
-      </c>
-      <c r="M18" s="18">
-        <v>0</v>
-      </c>
-      <c r="N18" s="32">
-        <v>0</v>
-      </c>
-      <c r="O18" s="18">
-        <v>0</v>
-      </c>
-      <c r="P18" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="18">
-        <v>0</v>
-      </c>
-      <c r="R18" s="32">
-        <v>0</v>
-      </c>
-      <c r="S18" s="32">
-        <v>0</v>
-      </c>
-      <c r="T18" s="18">
-        <v>0</v>
-      </c>
-      <c r="U18" s="18">
-        <v>0</v>
-      </c>
-      <c r="V18" s="18">
-        <v>0</v>
-      </c>
-      <c r="W18" s="18">
-        <v>0</v>
-      </c>
-      <c r="X18" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="18">
+        <v>17</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="2">
         <v>0</v>
       </c>
       <c r="AC18" s="18">
         <v>0</v>
       </c>
-      <c r="AD18" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="23">
+      <c r="AD18" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="22">
         <v>0</v>
       </c>
       <c r="AI18" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00008811</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="14.25" customHeight="1">
@@ -2928,12 +3051,14 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="C19" s="2">
         <v>0</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -2942,93 +3067,93 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="32">
-        <v>0</v>
-      </c>
-      <c r="K19" s="18">
-        <v>0</v>
-      </c>
-      <c r="L19" s="18">
-        <v>0</v>
-      </c>
-      <c r="M19" s="18">
-        <v>0</v>
-      </c>
-      <c r="N19" s="32">
-        <v>0</v>
-      </c>
-      <c r="O19" s="18">
-        <v>0</v>
-      </c>
-      <c r="P19" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="18">
-        <v>0</v>
-      </c>
-      <c r="R19" s="32">
-        <v>0</v>
-      </c>
-      <c r="S19" s="32">
-        <v>0</v>
-      </c>
-      <c r="T19" s="18">
-        <v>0</v>
-      </c>
-      <c r="U19" s="18">
-        <v>0</v>
-      </c>
-      <c r="V19" s="18">
-        <v>0</v>
-      </c>
-      <c r="W19" s="18">
-        <v>0</v>
-      </c>
-      <c r="X19" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="18">
+        <v>18</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" s="2">
+        <v>1</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0</v>
+      </c>
+      <c r="X19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="2">
         <v>0</v>
       </c>
       <c r="AC19" s="18">
         <v>0</v>
       </c>
-      <c r="AD19" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="23">
+      <c r="AD19" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="22">
         <v>0</v>
       </c>
       <c r="AI19" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00110052</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="14.25" customHeight="1">
@@ -3036,12 +3161,14 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="C20" s="2">
         <v>0</v>
       </c>
       <c r="D20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -3050,93 +3177,93 @@
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="32">
-        <v>0</v>
-      </c>
-      <c r="K20" s="18">
-        <v>0</v>
-      </c>
-      <c r="L20" s="18">
-        <v>0</v>
-      </c>
-      <c r="M20" s="18">
-        <v>0</v>
-      </c>
-      <c r="N20" s="32">
-        <v>0</v>
-      </c>
-      <c r="O20" s="18">
-        <v>0</v>
-      </c>
-      <c r="P20" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="18">
-        <v>0</v>
-      </c>
-      <c r="R20" s="32">
-        <v>0</v>
-      </c>
-      <c r="S20" s="32">
-        <v>0</v>
-      </c>
-      <c r="T20" s="18">
-        <v>0</v>
-      </c>
-      <c r="U20" s="18">
-        <v>0</v>
-      </c>
-      <c r="V20" s="18">
-        <v>0</v>
-      </c>
-      <c r="W20" s="18">
-        <v>0</v>
-      </c>
-      <c r="X20" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="18">
+        <v>19</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="2">
         <v>0</v>
       </c>
       <c r="AC20" s="18">
         <v>0</v>
       </c>
-      <c r="AD20" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="23">
+      <c r="AD20" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="22">
         <v>0</v>
       </c>
       <c r="AI20" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00004113</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="14.25" customHeight="1">
@@ -3144,7 +3271,9 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C21" s="2">
         <v>0</v>
       </c>
@@ -3167,84 +3296,84 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="32">
-        <v>0</v>
-      </c>
-      <c r="K21" s="18">
-        <v>0</v>
-      </c>
-      <c r="L21" s="18">
-        <v>0</v>
-      </c>
-      <c r="M21" s="18">
-        <v>0</v>
-      </c>
-      <c r="N21" s="32">
-        <v>0</v>
-      </c>
-      <c r="O21" s="18">
-        <v>0</v>
-      </c>
-      <c r="P21" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="18">
-        <v>0</v>
-      </c>
-      <c r="R21" s="32">
-        <v>0</v>
-      </c>
-      <c r="S21" s="32">
-        <v>0</v>
-      </c>
-      <c r="T21" s="18">
-        <v>0</v>
-      </c>
-      <c r="U21" s="18">
-        <v>0</v>
-      </c>
-      <c r="V21" s="18">
-        <v>0</v>
-      </c>
-      <c r="W21" s="18">
-        <v>0</v>
-      </c>
-      <c r="X21" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="18">
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2">
+        <v>1</v>
+      </c>
+      <c r="X21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="2">
         <v>0</v>
       </c>
       <c r="AC21" s="18">
         <v>0</v>
       </c>
-      <c r="AD21" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="23">
+      <c r="AD21" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="22">
         <v>0</v>
       </c>
       <c r="AI21" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00080040</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="14.25" customHeight="1">
@@ -3252,107 +3381,109 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="C22" s="2">
         <v>0</v>
       </c>
       <c r="D22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
       </c>
       <c r="F22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="32">
-        <v>0</v>
-      </c>
-      <c r="K22" s="18">
-        <v>0</v>
-      </c>
-      <c r="L22" s="18">
-        <v>0</v>
-      </c>
-      <c r="M22" s="18">
-        <v>0</v>
-      </c>
-      <c r="N22" s="32">
-        <v>0</v>
-      </c>
-      <c r="O22" s="18">
-        <v>0</v>
-      </c>
-      <c r="P22" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="18">
-        <v>0</v>
-      </c>
-      <c r="R22" s="32">
-        <v>0</v>
-      </c>
-      <c r="S22" s="32">
-        <v>0</v>
-      </c>
-      <c r="T22" s="18">
-        <v>0</v>
-      </c>
-      <c r="U22" s="18">
-        <v>0</v>
-      </c>
-      <c r="V22" s="18">
-        <v>0</v>
-      </c>
-      <c r="W22" s="18">
-        <v>0</v>
-      </c>
-      <c r="X22" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="23">
+        <v>21</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
+        <v>1</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="22">
         <v>0</v>
       </c>
       <c r="AI22" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00008055</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="14.25" customHeight="1">
@@ -3360,107 +3491,109 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="C23" s="2">
         <v>0</v>
       </c>
       <c r="D23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="32">
-        <v>0</v>
-      </c>
-      <c r="K23" s="18">
-        <v>0</v>
-      </c>
-      <c r="L23" s="18">
-        <v>0</v>
-      </c>
-      <c r="M23" s="18">
-        <v>0</v>
-      </c>
-      <c r="N23" s="32">
-        <v>0</v>
-      </c>
-      <c r="O23" s="18">
-        <v>0</v>
-      </c>
-      <c r="P23" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="18">
-        <v>0</v>
-      </c>
-      <c r="R23" s="32">
-        <v>0</v>
-      </c>
-      <c r="S23" s="32">
-        <v>0</v>
-      </c>
-      <c r="T23" s="18">
-        <v>0</v>
-      </c>
-      <c r="U23" s="18">
-        <v>0</v>
-      </c>
-      <c r="V23" s="18">
-        <v>0</v>
-      </c>
-      <c r="W23" s="18">
-        <v>0</v>
-      </c>
-      <c r="X23" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="23">
+        <v>22</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2">
+        <v>1</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+      <c r="X23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="22">
         <v>0</v>
       </c>
       <c r="AI23" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00110056</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="14.25" customHeight="1">
@@ -3468,107 +3601,109 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="C24" s="2">
         <v>0</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="32">
-        <v>0</v>
-      </c>
-      <c r="K24" s="18">
-        <v>0</v>
-      </c>
-      <c r="L24" s="18">
-        <v>0</v>
-      </c>
-      <c r="M24" s="18">
-        <v>0</v>
-      </c>
-      <c r="N24" s="32">
-        <v>0</v>
-      </c>
-      <c r="O24" s="18">
-        <v>0</v>
-      </c>
-      <c r="P24" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="18">
-        <v>0</v>
-      </c>
-      <c r="R24" s="32">
-        <v>0</v>
-      </c>
-      <c r="S24" s="32">
-        <v>0</v>
-      </c>
-      <c r="T24" s="18">
-        <v>0</v>
-      </c>
-      <c r="U24" s="18">
-        <v>0</v>
-      </c>
-      <c r="V24" s="18">
-        <v>0</v>
-      </c>
-      <c r="W24" s="18">
-        <v>0</v>
-      </c>
-      <c r="X24" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="23">
+        <v>23</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
+        <v>1</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="22">
         <v>0</v>
       </c>
       <c r="AI24" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00420117</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="14.25" customHeight="1">
@@ -3576,7 +3711,9 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="C25" s="2">
         <v>0</v>
       </c>
@@ -3599,84 +3736,84 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="32">
-        <v>0</v>
-      </c>
-      <c r="K25" s="18">
-        <v>0</v>
-      </c>
-      <c r="L25" s="18">
-        <v>0</v>
-      </c>
-      <c r="M25" s="18">
-        <v>0</v>
-      </c>
-      <c r="N25" s="32">
-        <v>0</v>
-      </c>
-      <c r="O25" s="18">
-        <v>0</v>
-      </c>
-      <c r="P25" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="18">
-        <v>0</v>
-      </c>
-      <c r="R25" s="32">
-        <v>0</v>
-      </c>
-      <c r="S25" s="32">
-        <v>0</v>
-      </c>
-      <c r="T25" s="18">
-        <v>0</v>
-      </c>
-      <c r="U25" s="18">
-        <v>0</v>
-      </c>
-      <c r="V25" s="18">
-        <v>0</v>
-      </c>
-      <c r="W25" s="18">
-        <v>0</v>
-      </c>
-      <c r="X25" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="23">
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0</v>
+      </c>
+      <c r="U25" s="2">
+        <v>0</v>
+      </c>
+      <c r="V25" s="2">
+        <v>0</v>
+      </c>
+      <c r="W25" s="2">
+        <v>0</v>
+      </c>
+      <c r="X25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="19">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="22">
         <v>0</v>
       </c>
       <c r="AI25" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>02000000</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="14.25" customHeight="1">
@@ -3684,15 +3821,17 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="C26" s="2">
         <v>0</v>
       </c>
       <c r="D26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
@@ -3701,90 +3840,90 @@
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="32">
-        <v>0</v>
-      </c>
-      <c r="K26" s="18">
-        <v>0</v>
-      </c>
-      <c r="L26" s="18">
-        <v>0</v>
-      </c>
-      <c r="M26" s="18">
-        <v>0</v>
-      </c>
-      <c r="N26" s="32">
-        <v>0</v>
-      </c>
-      <c r="O26" s="18">
-        <v>0</v>
-      </c>
-      <c r="P26" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="18">
-        <v>0</v>
-      </c>
-      <c r="R26" s="32">
-        <v>0</v>
-      </c>
-      <c r="S26" s="32">
-        <v>0</v>
-      </c>
-      <c r="T26" s="18">
-        <v>0</v>
-      </c>
-      <c r="U26" s="18">
-        <v>0</v>
-      </c>
-      <c r="V26" s="18">
-        <v>0</v>
-      </c>
-      <c r="W26" s="18">
-        <v>0</v>
-      </c>
-      <c r="X26" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="23">
+        <v>25</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0</v>
+      </c>
+      <c r="S26" s="2">
+        <v>1</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0</v>
+      </c>
+      <c r="U26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2">
+        <v>0</v>
+      </c>
+      <c r="X26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="22">
         <v>0</v>
       </c>
       <c r="AI26" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00008419</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="14.25" customHeight="1">
@@ -3792,107 +3931,109 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="C27" s="2">
         <v>0</v>
       </c>
       <c r="D27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="32">
-        <v>0</v>
-      </c>
-      <c r="K27" s="18">
-        <v>0</v>
-      </c>
-      <c r="L27" s="18">
-        <v>0</v>
-      </c>
-      <c r="M27" s="18">
-        <v>0</v>
-      </c>
-      <c r="N27" s="32">
-        <v>0</v>
-      </c>
-      <c r="O27" s="18">
-        <v>0</v>
-      </c>
-      <c r="P27" s="18">
+        <v>26</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1</v>
+      </c>
+      <c r="P27" s="2">
         <v>0</v>
       </c>
       <c r="Q27" s="2">
         <v>0</v>
       </c>
-      <c r="R27" s="32">
-        <v>0</v>
-      </c>
-      <c r="S27" s="32">
-        <v>0</v>
-      </c>
-      <c r="T27" s="18">
-        <v>0</v>
+      <c r="R27" s="2">
+        <v>0</v>
+      </c>
+      <c r="S27" s="2">
+        <v>0</v>
+      </c>
+      <c r="T27" s="2">
+        <v>1</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
-      <c r="V27" s="18">
-        <v>0</v>
-      </c>
-      <c r="W27" s="18">
-        <v>0</v>
-      </c>
-      <c r="X27" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="18">
+      <c r="V27" s="2">
+        <v>0</v>
+      </c>
+      <c r="W27" s="2">
+        <v>0</v>
+      </c>
+      <c r="X27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="2">
         <v>0</v>
       </c>
       <c r="Z27" s="2">
         <v>0</v>
       </c>
-      <c r="AA27" s="18">
+      <c r="AA27" s="2">
         <v>0</v>
       </c>
       <c r="AB27" s="2">
         <v>0</v>
       </c>
-      <c r="AC27" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="23">
+      <c r="AC27" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="22">
         <v>0</v>
       </c>
       <c r="AI27" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>0001081A</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="14.25" customHeight="1">
@@ -3900,7 +4041,9 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="C28" s="2">
         <v>0</v>
       </c>
@@ -3923,84 +4066,84 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="32">
-        <v>0</v>
-      </c>
-      <c r="K28" s="18">
-        <v>0</v>
-      </c>
-      <c r="L28" s="18">
-        <v>0</v>
-      </c>
-      <c r="M28" s="18">
-        <v>0</v>
-      </c>
-      <c r="N28" s="32">
-        <v>0</v>
-      </c>
-      <c r="O28" s="18">
-        <v>0</v>
-      </c>
-      <c r="P28" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="18">
-        <v>0</v>
-      </c>
-      <c r="R28" s="32">
-        <v>0</v>
-      </c>
-      <c r="S28" s="32">
-        <v>0</v>
-      </c>
-      <c r="T28" s="18">
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2">
         <v>0</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
       </c>
-      <c r="V28" s="18">
-        <v>0</v>
-      </c>
-      <c r="W28" s="18">
-        <v>0</v>
-      </c>
-      <c r="X28" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="18">
+      <c r="V28" s="2">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2">
+        <v>0</v>
+      </c>
+      <c r="X28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2">
         <v>0</v>
       </c>
       <c r="Z28" s="2">
         <v>0</v>
       </c>
-      <c r="AA28" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="23">
+      <c r="AA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="22">
         <v>0</v>
       </c>
       <c r="AI28" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00001100</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="14.25" customHeight="1">
@@ -4008,18 +4151,20 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="C29" s="2">
         <v>0</v>
       </c>
       <c r="D29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="2">
         <v>0</v>
@@ -4029,86 +4174,86 @@
       </c>
       <c r="I29" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="32">
-        <v>0</v>
-      </c>
-      <c r="K29" s="18">
-        <v>0</v>
-      </c>
-      <c r="L29" s="18">
-        <v>0</v>
-      </c>
-      <c r="M29" s="18">
-        <v>0</v>
-      </c>
-      <c r="N29" s="32">
-        <v>0</v>
-      </c>
-      <c r="O29" s="18">
-        <v>0</v>
-      </c>
-      <c r="P29" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="18">
-        <v>0</v>
-      </c>
-      <c r="R29" s="32">
-        <v>0</v>
-      </c>
-      <c r="S29" s="32">
-        <v>0</v>
-      </c>
-      <c r="T29" s="18">
+        <v>28</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2">
         <v>0</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
       </c>
-      <c r="V29" s="18">
-        <v>0</v>
-      </c>
-      <c r="W29" s="18">
-        <v>0</v>
-      </c>
-      <c r="X29" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="18">
+      <c r="V29" s="2">
+        <v>1</v>
+      </c>
+      <c r="W29" s="2">
+        <v>0</v>
+      </c>
+      <c r="X29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="2">
         <v>0</v>
       </c>
       <c r="Z29" s="2">
         <v>0</v>
       </c>
-      <c r="AA29" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="18">
+      <c r="AA29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="2">
         <v>0</v>
       </c>
       <c r="AC29" s="18">
         <v>0</v>
       </c>
-      <c r="AD29" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="23">
+      <c r="AD29" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="22">
         <v>0</v>
       </c>
       <c r="AI29" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>0014041C</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="14.25" customHeight="1">
@@ -4116,7 +4261,9 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="C30" s="2">
         <v>0</v>
       </c>
@@ -4139,84 +4286,84 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="32">
-        <v>0</v>
-      </c>
-      <c r="K30" s="18">
-        <v>0</v>
-      </c>
-      <c r="L30" s="18">
-        <v>0</v>
-      </c>
-      <c r="M30" s="18">
-        <v>0</v>
-      </c>
-      <c r="N30" s="32">
-        <v>0</v>
-      </c>
-      <c r="O30" s="18">
-        <v>0</v>
-      </c>
-      <c r="P30" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="18">
-        <v>0</v>
-      </c>
-      <c r="R30" s="32">
-        <v>0</v>
-      </c>
-      <c r="S30" s="32">
-        <v>0</v>
-      </c>
-      <c r="T30" s="18">
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0</v>
+      </c>
+      <c r="T30" s="2">
         <v>0</v>
       </c>
       <c r="U30" s="2">
         <v>0</v>
       </c>
-      <c r="V30" s="18">
-        <v>0</v>
-      </c>
-      <c r="W30" s="18">
-        <v>0</v>
-      </c>
-      <c r="X30" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="18">
+      <c r="V30" s="2">
+        <v>0</v>
+      </c>
+      <c r="W30" s="2">
+        <v>0</v>
+      </c>
+      <c r="X30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="2">
         <v>0</v>
       </c>
       <c r="Z30" s="2">
         <v>0</v>
       </c>
-      <c r="AA30" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="18">
+      <c r="AA30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="2">
         <v>0</v>
       </c>
       <c r="AC30" s="18">
         <v>0</v>
       </c>
-      <c r="AD30" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="23">
+      <c r="AD30" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="22">
         <v>0</v>
       </c>
       <c r="AI30" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00001040</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="14.25" customHeight="1">
@@ -4224,107 +4371,109 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="C31" s="2">
         <v>0</v>
       </c>
       <c r="D31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="2">
         <v>0</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="32">
-        <v>0</v>
-      </c>
-      <c r="K31" s="18">
-        <v>0</v>
-      </c>
-      <c r="L31" s="18">
-        <v>0</v>
-      </c>
-      <c r="M31" s="18">
-        <v>0</v>
-      </c>
-      <c r="N31" s="32">
-        <v>0</v>
-      </c>
-      <c r="O31" s="18">
-        <v>0</v>
-      </c>
-      <c r="P31" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="19">
-        <v>0</v>
-      </c>
-      <c r="R31" s="32">
-        <v>0</v>
-      </c>
-      <c r="S31" s="32">
-        <v>0</v>
-      </c>
-      <c r="T31" s="18">
+        <v>29</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="2">
+        <v>0</v>
+      </c>
+      <c r="S31" s="2">
+        <v>0</v>
+      </c>
+      <c r="T31" s="2">
         <v>0</v>
       </c>
       <c r="U31" s="2">
         <v>0</v>
       </c>
-      <c r="V31" s="18">
-        <v>0</v>
-      </c>
-      <c r="W31" s="18">
-        <v>0</v>
-      </c>
-      <c r="X31" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="18">
+      <c r="V31" s="2">
+        <v>0</v>
+      </c>
+      <c r="W31" s="2">
+        <v>0</v>
+      </c>
+      <c r="X31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="2">
         <v>0</v>
       </c>
       <c r="Z31" s="2">
         <v>0</v>
       </c>
-      <c r="AA31" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="20">
+      <c r="AA31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="2">
         <v>0</v>
       </c>
       <c r="AC31" s="18">
         <v>0</v>
       </c>
-      <c r="AD31" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="23">
+      <c r="AD31" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="22">
         <v>0</v>
       </c>
       <c r="AI31" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>0000001D</v>
       </c>
     </row>
     <row r="32" spans="1:35" ht="14.25" customHeight="1">
@@ -4332,107 +4481,109 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C32" s="2">
         <v>0</v>
       </c>
       <c r="D32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="5">
         <f>BIN2DEC(_xlfn.CONCAT(C32:H32))</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="32">
-        <v>0</v>
-      </c>
-      <c r="K32" s="18">
-        <v>0</v>
-      </c>
-      <c r="L32" s="18">
-        <v>0</v>
-      </c>
-      <c r="M32" s="18">
-        <v>0</v>
-      </c>
-      <c r="N32" s="32">
-        <v>0</v>
-      </c>
-      <c r="O32" s="18">
-        <v>0</v>
-      </c>
-      <c r="P32" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="33">
-        <v>0</v>
-      </c>
-      <c r="R32" s="32">
-        <v>0</v>
-      </c>
-      <c r="S32" s="32">
-        <v>0</v>
-      </c>
-      <c r="T32" s="18">
+        <v>31</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="2">
+        <v>0</v>
+      </c>
+      <c r="S32" s="2">
+        <v>1</v>
+      </c>
+      <c r="T32" s="2">
         <v>0</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
       </c>
-      <c r="V32" s="18">
-        <v>0</v>
-      </c>
-      <c r="W32" s="18">
-        <v>0</v>
-      </c>
-      <c r="X32" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="18">
+      <c r="V32" s="2">
+        <v>0</v>
+      </c>
+      <c r="W32" s="2">
+        <v>0</v>
+      </c>
+      <c r="X32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="2">
         <v>0</v>
       </c>
       <c r="Z32" s="2">
         <v>0</v>
       </c>
-      <c r="AA32" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="23">
+      <c r="AA32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="22">
         <v>0</v>
       </c>
       <c r="AI32" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>0000805F</v>
       </c>
     </row>
     <row r="33" spans="1:36" ht="14.25" customHeight="1">
@@ -4440,9 +4591,11 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="C33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -4461,86 +4614,86 @@
       </c>
       <c r="I33" s="5">
         <f>BIN2DEC(_xlfn.CONCAT(C33:H33))</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="32">
-        <v>0</v>
-      </c>
-      <c r="K33" s="18">
-        <v>0</v>
-      </c>
-      <c r="L33" s="18">
-        <v>0</v>
-      </c>
-      <c r="M33" s="18">
-        <v>0</v>
-      </c>
-      <c r="N33" s="32">
-        <v>0</v>
-      </c>
-      <c r="O33" s="18">
-        <v>0</v>
-      </c>
-      <c r="P33" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="33">
-        <v>0</v>
-      </c>
-      <c r="R33" s="33">
-        <v>0</v>
-      </c>
-      <c r="S33" s="32">
-        <v>0</v>
-      </c>
-      <c r="T33" s="18">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2">
+        <v>0</v>
+      </c>
+      <c r="S33" s="2">
+        <v>0</v>
+      </c>
+      <c r="T33" s="2">
+        <v>1</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
       </c>
-      <c r="V33" s="18">
-        <v>0</v>
-      </c>
-      <c r="W33" s="18">
-        <v>0</v>
-      </c>
-      <c r="X33" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="18">
+      <c r="V33" s="2">
+        <v>0</v>
+      </c>
+      <c r="W33" s="2">
+        <v>0</v>
+      </c>
+      <c r="X33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="2">
         <v>0</v>
       </c>
       <c r="Z33" s="2">
         <v>0</v>
       </c>
-      <c r="AA33" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="23">
+      <c r="AA33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="22">
         <v>0</v>
       </c>
       <c r="AI33" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00110060</v>
       </c>
     </row>
     <row r="34" spans="1:36" ht="14.25" customHeight="1">
@@ -4548,9 +4701,11 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
@@ -4565,90 +4720,90 @@
         <v>0</v>
       </c>
       <c r="H34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="5">
         <f>BIN2DEC(_xlfn.CONCAT(C34:H34))</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="32">
-        <v>0</v>
-      </c>
-      <c r="K34" s="18">
-        <v>0</v>
-      </c>
-      <c r="L34" s="18">
-        <v>0</v>
-      </c>
-      <c r="M34" s="18">
-        <v>0</v>
-      </c>
-      <c r="N34" s="32">
-        <v>0</v>
-      </c>
-      <c r="O34" s="18">
-        <v>0</v>
-      </c>
-      <c r="P34" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="33">
-        <v>0</v>
-      </c>
-      <c r="R34" s="33">
-        <v>0</v>
-      </c>
-      <c r="S34" s="32">
-        <v>0</v>
-      </c>
-      <c r="T34" s="18">
+        <v>33</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+      <c r="R34" s="2">
+        <v>0</v>
+      </c>
+      <c r="S34" s="2">
+        <v>0</v>
+      </c>
+      <c r="T34" s="2">
         <v>0</v>
       </c>
       <c r="U34" s="2">
-        <v>0</v>
-      </c>
-      <c r="V34" s="18">
-        <v>0</v>
-      </c>
-      <c r="W34" s="33">
-        <v>0</v>
-      </c>
-      <c r="X34" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="18">
+        <v>1</v>
+      </c>
+      <c r="V34" s="2">
+        <v>0</v>
+      </c>
+      <c r="W34" s="2">
+        <v>0</v>
+      </c>
+      <c r="X34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="2">
         <v>0</v>
       </c>
       <c r="Z34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="22">
         <v>0</v>
       </c>
       <c r="AI34" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00420121</v>
       </c>
     </row>
     <row r="35" spans="1:36" ht="14.25" customHeight="1">
@@ -4656,7 +4811,9 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="C35" s="2">
         <v>0</v>
       </c>
@@ -4679,25 +4836,25 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J35" s="32">
-        <v>0</v>
-      </c>
-      <c r="K35" s="18">
-        <v>0</v>
-      </c>
-      <c r="L35" s="18">
-        <v>0</v>
-      </c>
-      <c r="M35" s="18">
-        <v>0</v>
-      </c>
-      <c r="N35" s="32">
-        <v>0</v>
-      </c>
-      <c r="O35" s="18">
-        <v>0</v>
-      </c>
-      <c r="P35" s="18">
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
         <v>0</v>
       </c>
       <c r="Q35" s="2">
@@ -4706,57 +4863,57 @@
       <c r="R35" s="2">
         <v>0</v>
       </c>
-      <c r="S35" s="32">
-        <v>0</v>
-      </c>
-      <c r="T35" s="18">
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2">
         <v>0</v>
       </c>
       <c r="U35" s="2">
         <v>0</v>
       </c>
-      <c r="V35" s="18">
+      <c r="V35" s="2">
         <v>0</v>
       </c>
       <c r="W35" s="2">
         <v>0</v>
       </c>
-      <c r="X35" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="18">
+      <c r="X35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="2">
         <v>0</v>
       </c>
       <c r="Z35" s="2">
         <v>0</v>
       </c>
-      <c r="AA35" s="18">
+      <c r="AA35" s="2">
         <v>0</v>
       </c>
       <c r="AB35" s="2">
         <v>0</v>
       </c>
-      <c r="AC35" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="32">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="32">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="32">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="32">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="32">
+      <c r="AC35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="31">
         <v>0</v>
       </c>
       <c r="AI35" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>02000000</v>
       </c>
     </row>
     <row r="36" spans="1:36" ht="14.25" customHeight="1">
@@ -4764,9 +4921,11 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
@@ -4778,34 +4937,34 @@
         <v>0</v>
       </c>
       <c r="G36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="5">
         <f>BIN2DEC(_xlfn.CONCAT(C36:H36))</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="32">
-        <v>0</v>
-      </c>
-      <c r="K36" s="18">
-        <v>0</v>
-      </c>
-      <c r="L36" s="18">
-        <v>0</v>
-      </c>
-      <c r="M36" s="18">
-        <v>0</v>
-      </c>
-      <c r="N36" s="32">
-        <v>0</v>
-      </c>
-      <c r="O36" s="18">
-        <v>0</v>
-      </c>
-      <c r="P36" s="18">
+        <v>35</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>1</v>
+      </c>
+      <c r="P36" s="2">
         <v>0</v>
       </c>
       <c r="Q36" s="2">
@@ -4814,31 +4973,31 @@
       <c r="R36" s="2">
         <v>0</v>
       </c>
-      <c r="S36" s="32">
-        <v>0</v>
-      </c>
-      <c r="T36" s="18">
+      <c r="S36" s="2">
+        <v>1</v>
+      </c>
+      <c r="T36" s="2">
         <v>0</v>
       </c>
       <c r="U36" s="2">
         <v>0</v>
       </c>
-      <c r="V36" s="18">
+      <c r="V36" s="2">
         <v>0</v>
       </c>
       <c r="W36" s="2">
         <v>0</v>
       </c>
-      <c r="X36" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="18">
+      <c r="X36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2">
         <v>0</v>
       </c>
       <c r="Z36" s="2">
         <v>0</v>
       </c>
-      <c r="AA36" s="18">
+      <c r="AA36" s="2">
         <v>0</v>
       </c>
       <c r="AB36" s="2">
@@ -4847,24 +5006,24 @@
       <c r="AC36" s="18">
         <v>0</v>
       </c>
-      <c r="AD36" s="32">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="32">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="32">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="32">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="32">
+      <c r="AD36" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="31">
         <v>0</v>
       </c>
       <c r="AI36" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00008823</v>
       </c>
     </row>
     <row r="37" spans="1:36" ht="14.25" customHeight="1">
@@ -4872,9 +5031,11 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="C37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -4883,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
@@ -4893,27 +5054,27 @@
       </c>
       <c r="I37" s="5">
         <f>BIN2DEC(_xlfn.CONCAT(C37:H37))</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="32">
-        <v>0</v>
-      </c>
-      <c r="K37" s="18">
-        <v>0</v>
-      </c>
-      <c r="L37" s="18">
-        <v>0</v>
-      </c>
-      <c r="M37" s="18">
-        <v>0</v>
-      </c>
-      <c r="N37" s="32">
-        <v>0</v>
-      </c>
-      <c r="O37" s="18">
-        <v>0</v>
-      </c>
-      <c r="P37" s="18">
+        <v>36</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2">
+        <v>1</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
         <v>0</v>
       </c>
       <c r="Q37" s="2">
@@ -4922,31 +5083,31 @@
       <c r="R37" s="2">
         <v>0</v>
       </c>
-      <c r="S37" s="32">
-        <v>0</v>
-      </c>
-      <c r="T37" s="18">
-        <v>0</v>
+      <c r="S37" s="2">
+        <v>0</v>
+      </c>
+      <c r="T37" s="2">
+        <v>1</v>
       </c>
       <c r="U37" s="2">
         <v>0</v>
       </c>
-      <c r="V37" s="18">
+      <c r="V37" s="2">
         <v>0</v>
       </c>
       <c r="W37" s="2">
         <v>0</v>
       </c>
-      <c r="X37" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="18">
+      <c r="X37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="2">
         <v>0</v>
       </c>
       <c r="Z37" s="2">
         <v>0</v>
       </c>
-      <c r="AA37" s="18">
+      <c r="AA37" s="2">
         <v>0</v>
       </c>
       <c r="AB37" s="2">
@@ -4955,24 +5116,24 @@
       <c r="AC37" s="18">
         <v>0</v>
       </c>
-      <c r="AD37" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="23">
+      <c r="AD37" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="22">
         <v>0</v>
       </c>
       <c r="AI37" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00010424</v>
       </c>
     </row>
     <row r="38" spans="1:36" ht="14.25" customHeight="1">
@@ -4980,7 +5141,9 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="C38" s="2">
         <v>0</v>
       </c>
@@ -5003,25 +5166,25 @@
         <f>BIN2DEC(_xlfn.CONCAT(C38:H38))</f>
         <v>0</v>
       </c>
-      <c r="J38" s="32">
-        <v>0</v>
-      </c>
-      <c r="K38" s="18">
-        <v>0</v>
-      </c>
-      <c r="L38" s="18">
-        <v>0</v>
-      </c>
-      <c r="M38" s="18">
-        <v>0</v>
-      </c>
-      <c r="N38" s="32">
-        <v>0</v>
-      </c>
-      <c r="O38" s="18">
-        <v>0</v>
-      </c>
-      <c r="P38" s="18">
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
         <v>0</v>
       </c>
       <c r="Q38" s="2">
@@ -5033,28 +5196,28 @@
       <c r="S38" s="2">
         <v>0</v>
       </c>
-      <c r="T38" s="18">
+      <c r="T38" s="2">
         <v>0</v>
       </c>
       <c r="U38" s="2">
         <v>0</v>
       </c>
-      <c r="V38" s="18">
-        <v>0</v>
+      <c r="V38" s="2">
+        <v>1</v>
       </c>
       <c r="W38" s="2">
         <v>0</v>
       </c>
-      <c r="X38" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="18">
+      <c r="X38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="2">
         <v>0</v>
       </c>
       <c r="Z38" s="2">
         <v>0</v>
       </c>
-      <c r="AA38" s="18">
+      <c r="AA38" s="2">
         <v>0</v>
       </c>
       <c r="AB38" s="2">
@@ -5063,24 +5226,24 @@
       <c r="AC38" s="18">
         <v>0</v>
       </c>
-      <c r="AD38" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="23">
+      <c r="AD38" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="22">
         <v>0</v>
       </c>
       <c r="AI38" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00040100</v>
       </c>
     </row>
     <row r="39" spans="1:36" ht="14.25" customHeight="1">
@@ -5088,9 +5251,11 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="C39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -5099,37 +5264,37 @@
         <v>0</v>
       </c>
       <c r="F39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
       </c>
       <c r="I39" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="32">
-        <v>0</v>
-      </c>
-      <c r="K39" s="18">
+        <v>38</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2">
         <v>0</v>
       </c>
       <c r="L39" s="2">
         <v>0</v>
       </c>
-      <c r="M39" s="18">
-        <v>0</v>
-      </c>
-      <c r="N39" s="32">
-        <v>0</v>
-      </c>
-      <c r="O39" s="18">
-        <v>0</v>
-      </c>
-      <c r="P39" s="18">
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
         <v>0</v>
       </c>
       <c r="Q39" s="2">
@@ -5141,28 +5306,28 @@
       <c r="S39" s="2">
         <v>0</v>
       </c>
-      <c r="T39" s="18">
-        <v>0</v>
+      <c r="T39" s="2">
+        <v>1</v>
       </c>
       <c r="U39" s="2">
         <v>0</v>
       </c>
-      <c r="V39" s="18">
+      <c r="V39" s="2">
         <v>0</v>
       </c>
       <c r="W39" s="2">
         <v>0</v>
       </c>
-      <c r="X39" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="18">
+      <c r="X39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="2">
         <v>0</v>
       </c>
       <c r="Z39" s="2">
         <v>0</v>
       </c>
-      <c r="AA39" s="18">
+      <c r="AA39" s="2">
         <v>0</v>
       </c>
       <c r="AB39" s="2">
@@ -5171,24 +5336,24 @@
       <c r="AC39" s="2">
         <v>0</v>
       </c>
-      <c r="AD39" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="23">
+      <c r="AD39" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="22">
         <v>0</v>
       </c>
       <c r="AI39" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00010066</v>
       </c>
       <c r="AJ39" s="4" t="s">
         <v>21</v>
@@ -5199,9 +5364,11 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="C40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
@@ -5220,27 +5387,27 @@
       </c>
       <c r="I40" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J40" s="2">
-        <v>0</v>
-      </c>
-      <c r="K40" s="18">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2">
         <v>0</v>
       </c>
       <c r="L40" s="2">
         <v>0</v>
       </c>
-      <c r="M40" s="18">
-        <v>0</v>
-      </c>
-      <c r="N40" s="32">
-        <v>0</v>
-      </c>
-      <c r="O40" s="18">
-        <v>0</v>
-      </c>
-      <c r="P40" s="18">
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
         <v>0</v>
       </c>
       <c r="Q40" s="2">
@@ -5250,30 +5417,30 @@
         <v>0</v>
       </c>
       <c r="S40" s="2">
-        <v>0</v>
-      </c>
-      <c r="T40" s="18">
+        <v>1</v>
+      </c>
+      <c r="T40" s="2">
         <v>0</v>
       </c>
       <c r="U40" s="2">
         <v>0</v>
       </c>
-      <c r="V40" s="18">
+      <c r="V40" s="2">
         <v>0</v>
       </c>
       <c r="W40" s="2">
         <v>0</v>
       </c>
-      <c r="X40" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="18">
+      <c r="X40" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="2">
         <v>0</v>
       </c>
       <c r="Z40" s="2">
         <v>0</v>
       </c>
-      <c r="AA40" s="18">
+      <c r="AA40" s="2">
         <v>0</v>
       </c>
       <c r="AB40" s="2">
@@ -5282,24 +5449,24 @@
       <c r="AC40" s="2">
         <v>0</v>
       </c>
-      <c r="AD40" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="23">
+      <c r="AD40" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="22">
         <v>0</v>
       </c>
       <c r="AI40" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00108060</v>
       </c>
     </row>
     <row r="41" spans="1:36" ht="14.25" customHeight="1">
@@ -5307,48 +5474,50 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
       </c>
       <c r="E41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
       </c>
       <c r="G41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
       </c>
       <c r="I41" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J41" s="2">
-        <v>0</v>
-      </c>
-      <c r="K41" s="18">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2">
         <v>0</v>
       </c>
       <c r="L41" s="2">
         <v>0</v>
       </c>
-      <c r="M41" s="18">
-        <v>0</v>
-      </c>
-      <c r="N41" s="32">
-        <v>0</v>
-      </c>
-      <c r="O41" s="18">
-        <v>0</v>
-      </c>
-      <c r="P41" s="18">
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
         <v>0</v>
       </c>
       <c r="Q41" s="2">
@@ -5358,56 +5527,56 @@
         <v>0</v>
       </c>
       <c r="S41" s="2">
-        <v>0</v>
-      </c>
-      <c r="T41" s="18">
+        <v>1</v>
+      </c>
+      <c r="T41" s="2">
         <v>0</v>
       </c>
       <c r="U41" s="2">
         <v>0</v>
       </c>
-      <c r="V41" s="18">
+      <c r="V41" s="2">
         <v>0</v>
       </c>
       <c r="W41" s="2">
         <v>0</v>
       </c>
-      <c r="X41" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="18">
+      <c r="X41" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="2">
         <v>0</v>
       </c>
       <c r="Z41" s="2">
         <v>0</v>
       </c>
-      <c r="AA41" s="18">
+      <c r="AA41" s="2">
         <v>0</v>
       </c>
       <c r="AB41" s="2">
         <v>0</v>
       </c>
-      <c r="AC41" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="23">
+      <c r="AC41" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="22">
         <v>0</v>
       </c>
       <c r="AI41" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>0010806A</v>
       </c>
     </row>
     <row r="42" spans="1:36" ht="14.25" customHeight="1">
@@ -5415,31 +5584,33 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="C42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
       </c>
       <c r="E42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="2">
         <v>0</v>
       </c>
       <c r="G42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
@@ -5447,16 +5618,16 @@
       <c r="L42" s="2">
         <v>0</v>
       </c>
-      <c r="M42" s="18">
-        <v>0</v>
-      </c>
-      <c r="N42" s="32">
-        <v>0</v>
-      </c>
-      <c r="O42" s="18">
-        <v>0</v>
-      </c>
-      <c r="P42" s="18">
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
         <v>0</v>
       </c>
       <c r="Q42" s="2">
@@ -5468,54 +5639,54 @@
       <c r="S42" s="2">
         <v>0</v>
       </c>
-      <c r="T42" s="18">
-        <v>0</v>
+      <c r="T42" s="2">
+        <v>1</v>
       </c>
       <c r="U42" s="2">
         <v>0</v>
       </c>
-      <c r="V42" s="18">
+      <c r="V42" s="2">
         <v>0</v>
       </c>
       <c r="W42" s="2">
         <v>0</v>
       </c>
-      <c r="X42" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="18">
-        <v>0</v>
+      <c r="X42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>1</v>
       </c>
       <c r="Z42" s="2">
         <v>0</v>
       </c>
-      <c r="AA42" s="18">
+      <c r="AA42" s="2">
         <v>0</v>
       </c>
       <c r="AB42" s="2">
         <v>0</v>
       </c>
-      <c r="AC42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="23">
+      <c r="AC42" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="22">
         <v>0</v>
       </c>
       <c r="AI42" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>0021006B</v>
       </c>
     </row>
     <row r="43" spans="1:36" ht="14.25" customHeight="1">
@@ -5523,7 +5694,9 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="C43" s="2">
         <v>0</v>
       </c>
@@ -5555,16 +5728,16 @@
       <c r="L43" s="2">
         <v>0</v>
       </c>
-      <c r="M43" s="18">
-        <v>0</v>
+      <c r="M43" s="2">
+        <v>1</v>
       </c>
       <c r="N43" s="2">
         <v>0</v>
       </c>
-      <c r="O43" s="18">
-        <v>0</v>
-      </c>
-      <c r="P43" s="18">
+      <c r="O43" s="2">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2">
         <v>0</v>
       </c>
       <c r="Q43" s="2">
@@ -5576,54 +5749,54 @@
       <c r="S43" s="2">
         <v>0</v>
       </c>
-      <c r="T43" s="18">
+      <c r="T43" s="2">
         <v>0</v>
       </c>
       <c r="U43" s="2">
         <v>0</v>
       </c>
       <c r="V43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W43" s="2">
         <v>0</v>
       </c>
-      <c r="X43" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="18">
+      <c r="X43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="2">
         <v>0</v>
       </c>
       <c r="Z43" s="2">
         <v>0</v>
       </c>
-      <c r="AA43" s="18">
+      <c r="AA43" s="2">
         <v>0</v>
       </c>
       <c r="AB43" s="2">
         <v>0</v>
       </c>
-      <c r="AC43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="23">
+      <c r="AC43" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="22">
         <v>0</v>
       </c>
       <c r="AI43" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00040200</v>
       </c>
     </row>
     <row r="44" spans="1:36" ht="14.25" customHeight="1">
@@ -5714,19 +5887,19 @@
       <c r="AC44" s="2">
         <v>0</v>
       </c>
-      <c r="AD44" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="23">
+      <c r="AD44" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="22">
         <v>0</v>
       </c>
       <c r="AI44" s="7" t="str">
@@ -5822,19 +5995,19 @@
       <c r="AC45" s="2">
         <v>0</v>
       </c>
-      <c r="AD45" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="23">
+      <c r="AD45" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="22">
         <v>0</v>
       </c>
       <c r="AI45" s="7" t="str">
@@ -5930,19 +6103,19 @@
       <c r="AC46" s="2">
         <v>0</v>
       </c>
-      <c r="AD46" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="23">
+      <c r="AD46" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="22">
         <v>0</v>
       </c>
       <c r="AI46" s="7" t="str">
@@ -6038,19 +6211,19 @@
       <c r="AC47" s="2">
         <v>0</v>
       </c>
-      <c r="AD47" s="32">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="32">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="32">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="32">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="32">
+      <c r="AD47" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="31">
         <v>0</v>
       </c>
       <c r="AI47" s="7" t="str">
@@ -6146,19 +6319,19 @@
       <c r="AC48" s="2">
         <v>0</v>
       </c>
-      <c r="AD48" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG48" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="23">
+      <c r="AD48" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="22">
         <v>0</v>
       </c>
       <c r="AI48" s="7" t="str">
@@ -6254,19 +6427,19 @@
       <c r="AC49" s="2">
         <v>0</v>
       </c>
-      <c r="AD49" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="23">
+      <c r="AD49" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="22">
         <v>0</v>
       </c>
       <c r="AI49" s="7" t="str">
@@ -6361,19 +6534,19 @@
       <c r="AC50" s="2">
         <v>0</v>
       </c>
-      <c r="AD50" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH50" s="23">
+      <c r="AD50" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="22">
         <v>0</v>
       </c>
       <c r="AI50" s="7" t="str">
@@ -6469,19 +6642,19 @@
       <c r="AC51" s="2">
         <v>0</v>
       </c>
-      <c r="AD51" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="23">
+      <c r="AD51" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="22">
         <v>0</v>
       </c>
       <c r="AI51" s="7" t="str">
@@ -6577,19 +6750,19 @@
       <c r="AC52" s="2">
         <v>0</v>
       </c>
-      <c r="AD52" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE52" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF52" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG52" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH52" s="23">
+      <c r="AD52" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="22">
         <v>0</v>
       </c>
       <c r="AI52" s="7" t="str">
@@ -6685,19 +6858,19 @@
       <c r="AC53" s="2">
         <v>0</v>
       </c>
-      <c r="AD53" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE53" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF53" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG53" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH53" s="23">
+      <c r="AD53" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="22">
         <v>0</v>
       </c>
       <c r="AI53" s="7" t="str">
@@ -6793,19 +6966,19 @@
       <c r="AC54" s="2">
         <v>0</v>
       </c>
-      <c r="AD54" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE54" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF54" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG54" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH54" s="23">
+      <c r="AD54" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="22">
         <v>0</v>
       </c>
       <c r="AI54" s="7" t="str">
@@ -6901,19 +7074,19 @@
       <c r="AC55" s="2">
         <v>0</v>
       </c>
-      <c r="AD55" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE55" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF55" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG55" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH55" s="23">
+      <c r="AD55" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="22">
         <v>0</v>
       </c>
       <c r="AI55" s="7" t="str">
@@ -7009,19 +7182,19 @@
       <c r="AC56" s="2">
         <v>0</v>
       </c>
-      <c r="AD56" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE56" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF56" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG56" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH56" s="23">
+      <c r="AD56" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="22">
         <v>0</v>
       </c>
       <c r="AI56" s="7" t="str">
@@ -7117,19 +7290,19 @@
       <c r="AC57" s="2">
         <v>0</v>
       </c>
-      <c r="AD57" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE57" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF57" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG57" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH57" s="23">
+      <c r="AD57" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="22">
         <v>0</v>
       </c>
       <c r="AI57" s="7" t="str">
@@ -7141,30 +7314,30 @@
       <c r="A58" s="4"/>
     </row>
     <row r="59" spans="1:43" ht="14.25" customHeight="1">
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="M59" s="48" t="s">
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="M59" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="N59" s="49"/>
-      <c r="O59" s="49"/>
-      <c r="P59" s="50"/>
-      <c r="R59" s="35" t="s">
+      <c r="N59" s="45"/>
+      <c r="O59" s="45"/>
+      <c r="P59" s="46"/>
+      <c r="R59" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
-      <c r="V59" s="35"/>
+      <c r="S59" s="48"/>
+      <c r="T59" s="48"/>
+      <c r="U59" s="48"/>
+      <c r="V59" s="48"/>
       <c r="W59" s="8"/>
       <c r="X59" s="8"/>
       <c r="Y59" s="8"/>
@@ -7191,14 +7364,14 @@
       <c r="B60" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C60" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
       <c r="I60" s="1" t="s">
         <v>20</v>
       </c>
@@ -7217,11 +7390,11 @@
       <c r="P60" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="R60" s="35"/>
-      <c r="S60" s="35"/>
-      <c r="T60" s="35"/>
-      <c r="U60" s="35"/>
-      <c r="V60" s="35"/>
+      <c r="R60" s="48"/>
+      <c r="S60" s="48"/>
+      <c r="T60" s="48"/>
+      <c r="U60" s="48"/>
+      <c r="V60" s="48"/>
       <c r="W60" s="8"/>
       <c r="X60" s="8"/>
       <c r="Y60" s="8"/>
@@ -7245,13 +7418,13 @@
       <c r="AQ60" s="8"/>
     </row>
     <row r="61" spans="1:43" ht="14.25" customHeight="1">
-      <c r="B61" s="21"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
       <c r="I61" s="2"/>
       <c r="J61" s="11" t="str">
         <f>DEC2HEX(C61)</f>
@@ -7264,11 +7437,11 @@
         <f t="shared" ref="P61:P76" si="3">DEC2HEX(O61,2)</f>
         <v>00</v>
       </c>
-      <c r="R61" s="35"/>
-      <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
-      <c r="U61" s="35"/>
-      <c r="V61" s="35"/>
+      <c r="R61" s="48"/>
+      <c r="S61" s="48"/>
+      <c r="T61" s="48"/>
+      <c r="U61" s="48"/>
+      <c r="V61" s="48"/>
       <c r="W61" s="8"/>
       <c r="X61" s="8"/>
       <c r="Y61" s="8"/>
@@ -7292,13 +7465,13 @@
       <c r="AQ61" s="8"/>
     </row>
     <row r="62" spans="1:43" ht="14.25" customHeight="1">
-      <c r="B62" s="22"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
       <c r="I62" s="14"/>
       <c r="J62" s="15" t="str">
         <f>DEC2HEX(C62)</f>
@@ -7311,11 +7484,11 @@
         <f t="shared" si="3"/>
         <v>00</v>
       </c>
-      <c r="R62" s="35"/>
-      <c r="S62" s="35"/>
-      <c r="T62" s="35"/>
-      <c r="U62" s="35"/>
-      <c r="V62" s="35"/>
+      <c r="R62" s="48"/>
+      <c r="S62" s="48"/>
+      <c r="T62" s="48"/>
+      <c r="U62" s="48"/>
+      <c r="V62" s="48"/>
       <c r="W62" s="8"/>
       <c r="X62" s="8"/>
       <c r="Y62" s="8"/>
@@ -7346,11 +7519,11 @@
         <f t="shared" si="3"/>
         <v>00</v>
       </c>
-      <c r="R63" s="35"/>
-      <c r="S63" s="35"/>
-      <c r="T63" s="35"/>
-      <c r="U63" s="35"/>
-      <c r="V63" s="35"/>
+      <c r="R63" s="48"/>
+      <c r="S63" s="48"/>
+      <c r="T63" s="48"/>
+      <c r="U63" s="48"/>
+      <c r="V63" s="48"/>
       <c r="AK63" s="2"/>
       <c r="AL63" s="2"/>
       <c r="AM63" s="2"/>
@@ -7364,11 +7537,11 @@
         <f t="shared" si="3"/>
         <v>00</v>
       </c>
-      <c r="R64" s="35"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="35"/>
-      <c r="V64" s="35"/>
+      <c r="R64" s="48"/>
+      <c r="S64" s="48"/>
+      <c r="T64" s="48"/>
+      <c r="U64" s="48"/>
+      <c r="V64" s="48"/>
       <c r="AL64" s="2"/>
       <c r="AM64" s="2"/>
       <c r="AN64" s="2"/>
@@ -7384,17 +7557,17 @@
       </c>
     </row>
     <row r="66" spans="2:45" ht="14.25" customHeight="1">
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
       <c r="M66" s="12"/>
       <c r="N66" s="13"/>
       <c r="O66" s="4"/>
@@ -7402,30 +7575,30 @@
         <f t="shared" si="3"/>
         <v>00</v>
       </c>
-      <c r="R66" s="36" t="s">
+      <c r="R66" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="S66" s="36"/>
-      <c r="T66" s="36"/>
-      <c r="U66" s="36"/>
-      <c r="V66" s="36"/>
+      <c r="S66" s="49"/>
+      <c r="T66" s="49"/>
+      <c r="U66" s="49"/>
+      <c r="V66" s="49"/>
     </row>
     <row r="67" spans="2:45" ht="14.25" customHeight="1">
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="39" t="s">
+      <c r="C67" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="24" t="s">
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J67" s="26" t="s">
+      <c r="J67" s="25" t="s">
         <v>26</v>
       </c>
       <c r="M67" s="12"/>
@@ -7435,22 +7608,22 @@
         <f t="shared" si="3"/>
         <v>00</v>
       </c>
-      <c r="R67" s="36"/>
-      <c r="S67" s="36"/>
-      <c r="T67" s="36"/>
-      <c r="U67" s="36"/>
-      <c r="V67" s="36"/>
+      <c r="R67" s="49"/>
+      <c r="S67" s="49"/>
+      <c r="T67" s="49"/>
+      <c r="U67" s="49"/>
+      <c r="V67" s="49"/>
     </row>
     <row r="68" spans="2:45" ht="15" customHeight="1">
-      <c r="B68" s="27"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="31" t="str">
+      <c r="B68" s="26"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="30" t="str">
         <f>DEC2HEX(C68)</f>
         <v>0</v>
       </c>
@@ -7461,22 +7634,22 @@
         <f t="shared" si="3"/>
         <v>00</v>
       </c>
-      <c r="R68" s="36"/>
-      <c r="S68" s="36"/>
-      <c r="T68" s="36"/>
-      <c r="U68" s="36"/>
-      <c r="V68" s="36"/>
+      <c r="R68" s="49"/>
+      <c r="S68" s="49"/>
+      <c r="T68" s="49"/>
+      <c r="U68" s="49"/>
+      <c r="V68" s="49"/>
     </row>
     <row r="69" spans="2:45" ht="14.25" customHeight="1">
-      <c r="B69" s="29"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="31" t="str">
+      <c r="B69" s="28"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="30" t="str">
         <f>DEC2HEX(C69)</f>
         <v>0</v>
       </c>
@@ -7487,11 +7660,11 @@
         <f t="shared" si="3"/>
         <v>00</v>
       </c>
-      <c r="R69" s="36"/>
-      <c r="S69" s="36"/>
-      <c r="T69" s="36"/>
-      <c r="U69" s="36"/>
-      <c r="V69" s="36"/>
+      <c r="R69" s="49"/>
+      <c r="S69" s="49"/>
+      <c r="T69" s="49"/>
+      <c r="U69" s="49"/>
+      <c r="V69" s="49"/>
     </row>
     <row r="70" spans="2:45" ht="14.25" customHeight="1">
       <c r="M70" s="12"/>
@@ -7501,11 +7674,11 @@
         <f t="shared" si="3"/>
         <v>00</v>
       </c>
-      <c r="R70" s="36"/>
-      <c r="S70" s="36"/>
-      <c r="T70" s="36"/>
-      <c r="U70" s="36"/>
-      <c r="V70" s="36"/>
+      <c r="R70" s="49"/>
+      <c r="S70" s="49"/>
+      <c r="T70" s="49"/>
+      <c r="U70" s="49"/>
+      <c r="V70" s="49"/>
     </row>
     <row r="71" spans="2:45" ht="14.25" customHeight="1">
       <c r="M71" s="12"/>
@@ -7515,11 +7688,11 @@
         <f t="shared" si="3"/>
         <v>00</v>
       </c>
-      <c r="R71" s="36"/>
-      <c r="S71" s="36"/>
-      <c r="T71" s="36"/>
-      <c r="U71" s="36"/>
-      <c r="V71" s="36"/>
+      <c r="R71" s="49"/>
+      <c r="S71" s="49"/>
+      <c r="T71" s="49"/>
+      <c r="U71" s="49"/>
+      <c r="V71" s="49"/>
     </row>
     <row r="72" spans="2:45" ht="14.25" customHeight="1">
       <c r="M72" s="12"/>
@@ -7570,19 +7743,19 @@
       <c r="P77" s="16"/>
     </row>
     <row r="78" spans="2:45" ht="14.25" customHeight="1">
-      <c r="M78" s="42" t="s">
+      <c r="M78" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="N78" s="43"/>
-      <c r="O78" s="43"/>
-      <c r="P78" s="44"/>
+      <c r="N78" s="39"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="40"/>
       <c r="AS78" s="2"/>
     </row>
     <row r="79" spans="2:45" ht="14.25" customHeight="1">
-      <c r="M79" s="45"/>
-      <c r="N79" s="46"/>
-      <c r="O79" s="46"/>
-      <c r="P79" s="47"/>
+      <c r="M79" s="41"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="42"/>
+      <c r="P79" s="43"/>
     </row>
     <row r="80" spans="2:45" ht="14.25" customHeight="1"/>
     <row r="81" ht="14.25" customHeight="1"/>
@@ -8515,77 +8688,61 @@
     <mergeCell ref="C62:H62"/>
     <mergeCell ref="R59:V64"/>
     <mergeCell ref="R66:V71"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="B59:J59"/>
     <mergeCell ref="C60:H60"/>
     <mergeCell ref="C61:H61"/>
     <mergeCell ref="B66:J66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="C2:H57">
-    <cfRule type="cellIs" dxfId="15" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:L55 Z8:Z44 N8:O54 Q38:S48 V43:W45 Y45:Z46 U46:W46">
-    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
+  <conditionalFormatting sqref="J41:AB43">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:AC2 M3:AC4 M5:R5 U5:W5 Y5:AC5 S5:S37 X5:X46 T5:T48 M6:O7 Z6:AC7 Q6:R13 W6:W33 V6:V42 Y6:Y44 U6:U45 P6:P54 Q14:Q31 R14:R32">
-    <cfRule type="cellIs" dxfId="11" priority="73" operator="equal">
+  <conditionalFormatting sqref="J2:AC42">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M55">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+  <conditionalFormatting sqref="J44:AC57">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q49:Z49 Q50:AC54 N55:AC55 J56:AC57">
-    <cfRule type="cellIs" dxfId="7" priority="91" operator="equal">
+  <conditionalFormatting sqref="AC43">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="92" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U47:Z48">
-    <cfRule type="cellIs" dxfId="5" priority="41" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="42" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA8:AC49 Q35:R37 W35:W42">
-    <cfRule type="cellIs" dxfId="3" priority="21" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AH57">
-    <cfRule type="cellIs" dxfId="1" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/projects/cs2200-project-2-early/microcode.xlsx
+++ b/projects/cs2200-project-2-early/microcode.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="129">
   <si>
     <t xml:space="preserve">Index</t>
   </si>
@@ -133,7 +133,133 @@
     <t xml:space="preserve">reti1</t>
   </si>
   <si>
+    <t xml:space="preserve">int1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addi1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">halt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lw1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lw4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beq1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beq2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beq3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beq4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beq5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beq6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jalr1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jalr2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blt1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blt2</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">blt3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blt4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bgt1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bgt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or/xor1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or/xor2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or/xor3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lea1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lea2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lea3</t>
   </si>
   <si>
     <t xml:space="preserve">CC ROM</t>
@@ -180,7 +306,58 @@
     <t xml:space="preserve">OPCode</t>
   </si>
   <si>
+    <t xml:space="preserve">00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beq fails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beq succeeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0100</t>
+  </si>
+  <si>
     <t xml:space="preserve">Interrupt ROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0101</t>
   </si>
   <si>
     <r>
@@ -206,6 +383,69 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">jalr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bgt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">di</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1111</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -238,7 +478,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -278,14 +518,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -424,7 +656,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -453,19 +685,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -477,7 +701,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -505,7 +729,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -529,11 +753,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -690,21 +914,24 @@
   </sheetPr>
   <dimension ref="A1:AS1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1"/>
-      <selection pane="bottomLeft" activeCell="V7" activeCellId="0" sqref="V7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="AC40" activeCellId="0" sqref="AC40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="2.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="2.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="9" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="11.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="10" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="26" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="12.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="11.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="10.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="11.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="11.1"/>
@@ -832,7 +1059,7 @@
       <c r="A2" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="5" t="n">
@@ -853,7 +1080,7 @@
       <c r="H2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="8" t="n">
+      <c r="I2" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C2:H2))</f>
         <v>1</v>
       </c>
@@ -912,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="AB2" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="5" t="n">
         <v>0</v>
@@ -932,9 +1159,9 @@
       <c r="AH2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI2" s="9" t="str">
+      <c r="AI2" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH2, AG2, AF2),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE2, AD2, AC2, AB2),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA2,Z2,Y2, X2),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W2,V2,U2, T2),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S2,R2,Q2, P2),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O2,N2, M2, L2),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K2,J2,C2,D2),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E2,F2,G2,H2),1) )</f>
-        <v>0000C401</v>
+        <v>0300C401</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -962,7 +1189,7 @@
       <c r="H3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="8" t="n">
+      <c r="I3" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C3:H3))</f>
         <v>2</v>
       </c>
@@ -1041,7 +1268,7 @@
       <c r="AH3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI3" s="9" t="str">
+      <c r="AI3" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH3, AG3, AF3),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE3, AD3, AC3, AB3),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA3,Z3,Y3, X3),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W3,V3,U3, T3),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S3,R3,Q3, P3),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O3,N3, M3, L3),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K3,J3,C3,D3),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E3,F3,G3,H3),1) )</f>
         <v>00002082</v>
       </c>
@@ -1050,7 +1277,7 @@
       <c r="A4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="5" t="n">
@@ -1071,7 +1298,7 @@
       <c r="H4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="8" t="n">
+      <c r="I4" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C4:H4))</f>
         <v>0</v>
       </c>
@@ -1082,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -1150,12 +1377,12 @@
       <c r="AH4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI4" s="9" t="str">
+      <c r="AI4" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH4, AG4, AF4),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE4, AD4, AC4, AB4),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA4,Z4,Y4, X4),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W4,V4,U4, T4),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S4,R4,Q4, P4),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O4,N4, M4, L4),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K4,J4,C4,D4),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E4,F4,G4,H4),1) )</f>
-        <v>01C01000</v>
+        <v>01C01100</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <f aca="false">A4+1</f>
         <v>3</v>
@@ -1181,7 +1408,7 @@
       <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="8" t="n">
+      <c r="I5" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C5:H5))</f>
         <v>0</v>
       </c>
@@ -1260,7 +1487,7 @@
       <c r="AH5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI5" s="9" t="str">
+      <c r="AI5" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH5, AG5, AF5),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE5, AD5, AC5, AB5),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA5,Z5,Y5, X5),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W5,V5,U5, T5),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S5,R5,Q5, P5),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O5,N5, M5, L5),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K5,J5,C5,D5),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E5,F5,G5,H5),1) )</f>
         <v>0C000000</v>
       </c>
@@ -1291,7 +1518,7 @@
       <c r="H6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C6:H6))</f>
         <v>0</v>
       </c>
@@ -1370,7 +1597,7 @@
       <c r="AH6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI6" s="9" t="str">
+      <c r="AI6" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH6, AG6, AF6),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE6, AD6, AC6, AB6),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA6,Z6,Y6, X6),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W6,V6,U6, T6),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S6,R6,Q6, P6),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O6,N6, M6, L6),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K6,J6,C6,D6),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E6,F6,G6,H6),1) )</f>
         <v>04000000</v>
       </c>
@@ -1401,7 +1628,7 @@
       <c r="H7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C7:H7))</f>
         <v>0</v>
       </c>
@@ -1480,7 +1707,7 @@
       <c r="AH7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI7" s="10" t="str">
+      <c r="AI7" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH7, AG7, AF7),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE7, AD7, AC7, AB7),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA7,Z7,Y7, X7),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W7,V7,U7, T7),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S7,R7,Q7, P7),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O7,N7, M7, L7),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K7,J7,C7,D7),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E7,F7,G7,H7),1) )</f>
         <v>0C301040</v>
       </c>
@@ -1490,7 +1717,9 @@
         <f aca="false">A7+1</f>
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="C8" s="5" t="n">
         <v>0</v>
       </c>
@@ -1501,17 +1730,17 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C8:H8))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -1526,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="5" t="n">
         <v>0</v>
@@ -1550,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="V8" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="X8" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="5" t="n">
         <v>0</v>
@@ -1574,13 +1803,13 @@
         <v>0</v>
       </c>
       <c r="AD8" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="AF8" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="5" t="n">
         <v>0</v>
@@ -1588,9 +1817,9 @@
       <c r="AH8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI8" s="9" t="str">
+      <c r="AI8" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH8, AG8, AF8),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE8, AD8, AC8, AB8),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA8,Z8,Y8, X8),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W8,V8,U8, T8),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S8,R8,Q8, P8),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O8,N8, M8, L8),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K8,J8,C8,D8),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E8,F8,G8,H8),1) )</f>
-        <v>00000000</v>
+        <v>14340407</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1598,7 +1827,9 @@
         <f aca="false">A8+1</f>
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="C9" s="5" t="n">
         <v>0</v>
       </c>
@@ -1606,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>0</v>
@@ -1617,9 +1848,9 @@
       <c r="H9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="8" t="n">
+      <c r="I9" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C9:H9))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1646,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="5" t="n">
         <v>0</v>
@@ -1691,14 +1922,14 @@
         <v>0</v>
       </c>
       <c r="AG9" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI9" s="9" t="str">
+      <c r="AI9" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH9, AG9, AF9),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE9, AD9, AC9, AB9),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA9,Z9,Y9, X9),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W9,V9,U9, T9),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S9,R9,Q9, P9),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O9,N9, M9, L9),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K9,J9,C9,D9),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E9,F9,G9,H9),1) )</f>
-        <v>00000000</v>
+        <v>20004008</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1706,7 +1937,9 @@
         <f aca="false">A9+1</f>
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="C10" s="5" t="n">
         <v>0</v>
       </c>
@@ -1725,7 +1958,7 @@
       <c r="H10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="I10" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C10:H10))</f>
         <v>0</v>
       </c>
@@ -1733,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="5" t="n">
         <v>0</v>
@@ -1748,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>0</v>
@@ -1804,9 +2037,9 @@
       <c r="AH10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI10" s="9" t="str">
+      <c r="AI10" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH10, AG10, AF10),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE10, AD10, AC10, AB10),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA10,Z10,Y10, X10),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W10,V10,U10, T10),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S10,R10,Q10, P10),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O10,N10, M10, L10),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K10,J10,C10,D10),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E10,F10,G10,H10),1) )</f>
-        <v>00000000</v>
+        <v>00001080</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1814,7 +2047,9 @@
         <f aca="false">A10+1</f>
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="C11" s="5" t="n">
         <v>0</v>
       </c>
@@ -1822,20 +2057,20 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="8" t="n">
+      <c r="I11" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C11:H11))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1853,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="5" t="n">
         <v>0</v>
@@ -1910,11 +2145,11 @@
         <v>0</v>
       </c>
       <c r="AH11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="9" t="str">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH11, AG11, AF11),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE11, AD11, AC11, AB11),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA11,Z11,Y11, X11),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W11,V11,U11, T11),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S11,R11,Q11, P11),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O11,N11, M11, L11),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K11,J11,C11,D11),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E11,F11,G11,H11),1) )</f>
-        <v>00000000</v>
+        <v>4000080A</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1922,7 +2157,9 @@
         <f aca="false">A11+1</f>
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="C12" s="5" t="n">
         <v>0</v>
       </c>
@@ -1930,20 +2167,20 @@
         <v>0</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C12:H12))</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -1982,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="5" t="n">
         <v>0</v>
@@ -2015,14 +2252,14 @@
         <v>0</v>
       </c>
       <c r="AG12" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI12" s="9" t="str">
+      <c r="AI12" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH12, AG12, AF12),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE12, AD12, AC12, AB12),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA12,Z12,Y12, X12),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W12,V12,U12, T12),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S12,R12,Q12, P12),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O12,N12, M12, L12),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K12,J12,C12,D12),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E12,F12,G12,H12),1) )</f>
-        <v>00000000</v>
+        <v>2004000B</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2030,7 +2267,9 @@
         <f aca="false">A12+1</f>
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="C13" s="5" t="n">
         <v>0</v>
       </c>
@@ -2049,12 +2288,12 @@
       <c r="H13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="8" t="n">
+      <c r="I13" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C13:H13))</f>
         <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0</v>
@@ -2096,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="5" t="n">
         <v>0</v>
@@ -2126,11 +2365,11 @@
         <v>0</v>
       </c>
       <c r="AH13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="9" t="str">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH13, AG13, AF13),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE13, AD13, AC13, AB13),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA13,Z13,Y13, X13),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W13,V13,U13, T13),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S13,R13,Q13, P13),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O13,N13, M13, L13),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K13,J13,C13,D13),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E13,F13,G13,H13),1) )</f>
-        <v>00000000</v>
+        <v>40100040</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2138,7 +2377,9 @@
         <f aca="false">A13+1</f>
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="C14" s="5" t="n">
         <v>0</v>
       </c>
@@ -2146,23 +2387,23 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C14:H14))</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
@@ -2192,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="5" t="n">
         <v>0</v>
@@ -2207,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="5" t="n">
         <v>0</v>
@@ -2236,9 +2477,9 @@
       <c r="AH14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI14" s="9" t="str">
+      <c r="AI14" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH14, AG14, AF14),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE14, AD14, AC14, AB14),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA14,Z14,Y14, X14),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W14,V14,U14, T14),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S14,R14,Q14, P14),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O14,N14, M14, L14),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K14,J14,C14,D14),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E14,F14,G14,H14),1) )</f>
-        <v>00000000</v>
+        <v>0021004D</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2246,7 +2487,9 @@
         <f aca="false">A14+1</f>
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="C15" s="5" t="n">
         <v>0</v>
       </c>
@@ -2254,23 +2497,23 @@
         <v>0</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="8" t="n">
+      <c r="I15" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C15:H15))</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="5" t="n">
         <v>0</v>
@@ -2297,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="5" t="n">
         <v>0</v>
@@ -2312,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="5" t="n">
         <v>0</v>
@@ -2344,9 +2587,9 @@
       <c r="AH15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI15" s="9" t="str">
+      <c r="AI15" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH15, AG15, AF15),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE15, AD15, AC15, AB15),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA15,Z15,Y15, X15),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W15,V15,U15, T15),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S15,R15,Q15, P15),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O15,N15, M15, L15),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K15,J15,C15,D15),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E15,F15,G15,H15),1) )</f>
-        <v>00000000</v>
+        <v>0010804E</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2354,7 +2597,9 @@
         <f aca="false">A15+1</f>
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="C16" s="5" t="n">
         <v>0</v>
       </c>
@@ -2373,7 +2618,7 @@
       <c r="H16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="8" t="n">
+      <c r="I16" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C16:H16))</f>
         <v>0</v>
       </c>
@@ -2384,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -2414,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" s="5" t="n">
         <v>0</v>
@@ -2452,9 +2697,9 @@
       <c r="AH16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI16" s="9" t="str">
+      <c r="AI16" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH16, AG16, AF16),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE16, AD16, AC16, AB16),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA16,Z16,Y16, X16),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W16,V16,U16, T16),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S16,R16,Q16, P16),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O16,N16, M16, L16),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K16,J16,C16,D16),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E16,F16,G16,H16),1) )</f>
-        <v>00000000</v>
+        <v>00040100</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2462,7 +2707,9 @@
         <f aca="false">A16+1</f>
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="C17" s="5" t="n">
         <v>0</v>
       </c>
@@ -2470,20 +2717,20 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C17:H17))</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -2501,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="5" t="n">
         <v>0</v>
@@ -2516,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="5" t="n">
         <v>0</v>
@@ -2560,9 +2807,9 @@
       <c r="AH17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI17" s="9" t="str">
+      <c r="AI17" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH17, AG17, AF17),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE17, AD17, AC17, AB17),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA17,Z17,Y17, X17),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W17,V17,U17, T17),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S17,R17,Q17, P17),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O17,N17, M17, L17),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K17,J17,C17,D17),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E17,F17,G17,H17),1) )</f>
-        <v>00000000</v>
+        <v>0001080D</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2570,12 +2817,14 @@
         <f aca="false">A17+1</f>
         <v>16</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="C18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>0</v>
@@ -2589,9 +2838,9 @@
       <c r="H18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="8" t="n">
+      <c r="I18" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C18:H18))</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -2668,9 +2917,9 @@
       <c r="AH18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI18" s="9" t="str">
+      <c r="AI18" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH18, AG18, AF18),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE18, AD18, AC18, AB18),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA18,Z18,Y18, X18),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W18,V18,U18, T18),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S18,R18,Q18, P18),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O18,N18, M18, L18),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K18,J18,C18,D18),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E18,F18,G18,H18),1) )</f>
-        <v>00000000</v>
+        <v>00000010</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2678,12 +2927,14 @@
         <f aca="false">A18+1</f>
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="C19" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0</v>
@@ -2692,17 +2943,17 @@
         <v>0</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="8" t="n">
+      <c r="I19" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C19:H19))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0</v>
@@ -2729,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="5" t="n">
         <v>0</v>
@@ -2744,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="5" t="n">
         <v>0</v>
@@ -2776,9 +3027,9 @@
       <c r="AH19" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI19" s="9" t="str">
+      <c r="AI19" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH19, AG19, AF19),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE19, AD19, AC19, AB19),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA19,Z19,Y19, X19),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W19,V19,U19, T19),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S19,R19,Q19, P19),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O19,N19, M19, L19),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K19,J19,C19,D19),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E19,F19,G19,H19),1) )</f>
-        <v>00000000</v>
+        <v>00108052</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2786,12 +3037,14 @@
         <f aca="false">A19+1</f>
         <v>18</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
@@ -2800,17 +3053,17 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C20:H20))</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
@@ -2840,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="5" t="n">
         <v>0</v>
@@ -2855,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" s="5" t="n">
         <v>0</v>
@@ -2884,9 +3137,9 @@
       <c r="AH20" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI20" s="9" t="str">
+      <c r="AI20" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH20, AG20, AF20),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE20, AD20, AC20, AB20),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA20,Z20,Y20, X20),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W20,V20,U20, T20),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S20,R20,Q20, P20),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O20,N20, M20, L20),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K20,J20,C20,D20),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E20,F20,G20,H20),1) )</f>
-        <v>00000000</v>
+        <v>00210053</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2894,7 +3147,9 @@
         <f aca="false">A20+1</f>
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="C21" s="5" t="n">
         <v>0</v>
       </c>
@@ -2913,7 +3168,7 @@
       <c r="H21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="8" t="n">
+      <c r="I21" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C21:H21))</f>
         <v>0</v>
       </c>
@@ -2924,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -2954,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="5" t="n">
         <v>0</v>
@@ -2969,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="5" t="n">
         <v>0</v>
@@ -2992,9 +3247,9 @@
       <c r="AH21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI21" s="9" t="str">
+      <c r="AI21" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH21, AG21, AF21),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE21, AD21, AC21, AB21),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA21,Z21,Y21, X21),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W21,V21,U21, T21),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S21,R21,Q21, P21),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O21,N21, M21, L21),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K21,J21,C21,D21),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E21,F21,G21,H21),1) )</f>
-        <v>00000000</v>
+        <v>00840100</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3002,28 +3257,30 @@
         <f aca="false">A21+1</f>
         <v>20</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C22" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C22:H22))</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -3041,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="5" t="n">
         <v>0</v>
@@ -3053,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="5" t="n">
         <v>0</v>
@@ -3100,9 +3357,9 @@
       <c r="AH22" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI22" s="9" t="str">
+      <c r="AI22" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH22, AG22, AF22),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE22, AD22, AC22, AB22),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA22,Z22,Y22, X22),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W22,V22,U22, T22),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S22,R22,Q22, P22),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O22,N22, M22, L22),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K22,J22,C22,D22),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E22,F22,G22,H22),1) )</f>
-        <v>00000000</v>
+        <v>00008815</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3110,31 +3367,33 @@
         <f aca="false">A22+1</f>
         <v>21</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="C23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="8" t="n">
+      <c r="I23" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C23:H23))</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>0</v>
@@ -3164,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="5" t="n">
         <v>0</v>
@@ -3176,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="5" t="n">
         <v>0</v>
@@ -3208,9 +3467,9 @@
       <c r="AH23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI23" s="9" t="str">
+      <c r="AI23" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH23, AG23, AF23),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE23, AD23, AC23, AB23),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA23,Z23,Y23, X23),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W23,V23,U23, T23),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S23,R23,Q23, P23),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O23,N23, M23, L23),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K23,J23,C23,D23),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E23,F23,G23,H23),1) )</f>
-        <v>00000000</v>
+        <v>00110056</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3218,28 +3477,30 @@
         <f aca="false">A23+1</f>
         <v>22</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="C24" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C24:H24))</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -3248,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -3266,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="5" t="n">
         <v>0</v>
@@ -3316,9 +3577,9 @@
       <c r="AH24" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI24" s="9" t="str">
+      <c r="AI24" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH24, AG24, AF24),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE24, AD24, AC24, AB24),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA24,Z24,Y24, X24),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W24,V24,U24, T24),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S24,R24,Q24, P24),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O24,N24, M24, L24),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K24,J24,C24,D24),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E24,F24,G24,H24),1) )</f>
-        <v>00000000</v>
+        <v>00004117</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3326,7 +3587,9 @@
         <f aca="false">A24+1</f>
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="C25" s="5" t="n">
         <v>0</v>
       </c>
@@ -3345,7 +3608,7 @@
       <c r="H25" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="8" t="n">
+      <c r="I25" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C25:H25))</f>
         <v>0</v>
       </c>
@@ -3353,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="5" t="n">
         <v>0</v>
@@ -3386,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" s="5" t="n">
         <v>0</v>
@@ -3424,9 +3687,9 @@
       <c r="AH25" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI25" s="9" t="str">
+      <c r="AI25" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH25, AG25, AF25),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE25, AD25, AC25, AB25),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA25,Z25,Y25, X25),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W25,V25,U25, T25),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S25,R25,Q25, P25),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O25,N25, M25, L25),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K25,J25,C25,D25),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E25,F25,G25,H25),1) )</f>
-        <v>00000000</v>
+        <v>00040080</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3434,15 +3697,17 @@
         <f aca="false">A25+1</f>
         <v>24</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="C26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>0</v>
@@ -3451,11 +3716,11 @@
         <v>0</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C26:H26))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -3473,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="5" t="n">
         <v>0</v>
@@ -3485,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="5" t="n">
         <v>0</v>
@@ -3532,9 +3797,9 @@
       <c r="AH26" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI26" s="9" t="str">
+      <c r="AI26" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH26, AG26, AF26),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE26, AD26, AC26, AB26),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA26,Z26,Y26, X26),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W26,V26,U26, T26),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S26,R26,Q26, P26),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O26,N26, M26, L26),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K26,J26,C26,D26),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E26,F26,G26,H26),1) )</f>
-        <v>00000000</v>
+        <v>00008819</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3542,31 +3807,33 @@
         <f aca="false">A26+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="C27" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="8" t="n">
+      <c r="I27" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C27:H27))</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="5" t="n">
         <v>0</v>
@@ -3596,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="5" t="n">
         <v>0</v>
@@ -3608,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="5" t="n">
         <v>0</v>
@@ -3640,9 +3907,9 @@
       <c r="AH27" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI27" s="9" t="str">
+      <c r="AI27" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH27, AG27, AF27),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE27, AD27, AC27, AB27),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA27,Z27,Y27, X27),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W27,V27,U27, T27),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S27,R27,Q27, P27),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O27,N27, M27, L27),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K27,J27,C27,D27),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E27,F27,G27,H27),1) )</f>
-        <v>00000000</v>
+        <v>0011005A</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3650,28 +3917,30 @@
         <f aca="false">A27+1</f>
         <v>26</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="C28" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G28" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C28:H28))</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -3680,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -3698,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" s="5" t="n">
         <v>0</v>
@@ -3748,9 +4017,9 @@
       <c r="AH28" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI28" s="9" t="str">
+      <c r="AI28" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH28, AG28, AF28),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE28, AD28, AC28, AB28),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA28,Z28,Y28, X28),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W28,V28,U28, T28),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S28,R28,Q28, P28),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O28,N28, M28, L28),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K28,J28,C28,D28),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E28,F28,G28,H28),1) )</f>
-        <v>00000000</v>
+        <v>0000411B</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3758,7 +4027,9 @@
         <f aca="false">A28+1</f>
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="C29" s="5" t="n">
         <v>0</v>
       </c>
@@ -3777,12 +4048,12 @@
       <c r="H29" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="8" t="n">
+      <c r="I29" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C29:H29))</f>
         <v>0</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="5" t="n">
         <v>0</v>
@@ -3821,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" s="5" t="n">
         <v>0</v>
@@ -3856,9 +4127,9 @@
       <c r="AH29" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI29" s="9" t="str">
+      <c r="AI29" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH29, AG29, AF29),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE29, AD29, AC29, AB29),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA29,Z29,Y29, X29),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W29,V29,U29, T29),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S29,R29,Q29, P29),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O29,N29, M29, L29),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K29,J29,C29,D29),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E29,F29,G29,H29),1) )</f>
-        <v>00000000</v>
+        <v>00080040</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3866,31 +4137,33 @@
         <f aca="false">A29+1</f>
         <v>28</v>
       </c>
-      <c r="B30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="C30" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C30:H30))</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="5" t="n">
         <v>0</v>
@@ -3917,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="5" t="n">
         <v>0</v>
@@ -3964,9 +4237,9 @@
       <c r="AH30" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI30" s="9" t="str">
+      <c r="AI30" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH30, AG30, AF30),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE30, AD30, AC30, AB30),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA30,Z30,Y30, X30),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W30,V30,U30, T30),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S30,R30,Q30, P30),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O30,N30, M30, L30),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K30,J30,C30,D30),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E30,F30,G30,H30),1) )</f>
-        <v>00000000</v>
+        <v>0000805D</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3974,31 +4247,33 @@
         <f aca="false">A30+1</f>
         <v>29</v>
       </c>
-      <c r="B31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="C31" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="8" t="n">
+      <c r="I31" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C31:H31))</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="5" t="n">
         <v>0</v>
@@ -4028,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="5" t="n">
         <v>0</v>
@@ -4040,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="5" t="n">
         <v>0</v>
@@ -4072,9 +4347,9 @@
       <c r="AH31" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI31" s="9" t="str">
+      <c r="AI31" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH31, AG31, AF31),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE31, AD31, AC31, AB31),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA31,Z31,Y31, X31),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W31,V31,U31, T31),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S31,R31,Q31, P31),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O31,N31, M31, L31),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K31,J31,C31,D31),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E31,F31,G31,H31),1) )</f>
-        <v>00000000</v>
+        <v>0011005E</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4082,28 +4357,30 @@
         <f aca="false">A31+1</f>
         <v>30</v>
       </c>
-      <c r="B32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="C32" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C32:H32))</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>0</v>
@@ -4112,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -4139,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" s="5" t="n">
         <v>0</v>
@@ -4154,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA32" s="5" t="n">
         <v>0</v>
@@ -4180,9 +4457,9 @@
       <c r="AH32" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI32" s="9" t="str">
+      <c r="AI32" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH32, AG32, AF32),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE32, AD32, AC32, AB32),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA32,Z32,Y32, X32),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W32,V32,U32, T32),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S32,R32,Q32, P32),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O32,N32, M32, L32),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K32,J32,C32,D32),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E32,F32,G32,H32),1) )</f>
-        <v>00000000</v>
+        <v>0042011F</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4190,7 +4467,9 @@
         <f aca="false">A32+1</f>
         <v>31</v>
       </c>
-      <c r="B33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="C33" s="5" t="n">
         <v>0</v>
       </c>
@@ -4209,7 +4488,7 @@
       <c r="H33" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I33" s="8" t="n">
+      <c r="I33" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C33:H33))</f>
         <v>0</v>
       </c>
@@ -4226,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="5" t="n">
         <v>0</v>
@@ -4241,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="5" t="n">
         <v>0</v>
@@ -4271,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" s="5" t="n">
         <v>0</v>
@@ -4288,9 +4567,9 @@
       <c r="AH33" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI33" s="9" t="str">
+      <c r="AI33" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH33, AG33, AF33),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE33, AD33, AC33, AB33),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA33,Z33,Y33, X33),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W33,V33,U33, T33),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S33,R33,Q33, P33),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O33,N33, M33, L33),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K33,J33,C33,D33),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E33,F33,G33,H33),1) )</f>
-        <v>00000000</v>
+        <v>02008400</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4298,9 +4577,11 @@
         <f aca="false">A33+1</f>
         <v>32</v>
       </c>
-      <c r="B34" s="5"/>
+      <c r="B34" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="C34" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>0</v>
@@ -4315,11 +4596,11 @@
         <v>0</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C34:H34))</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -4337,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="5" t="n">
         <v>0</v>
@@ -4352,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="5" t="n">
         <v>0</v>
@@ -4396,9 +4677,9 @@
       <c r="AH34" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI34" s="9" t="str">
+      <c r="AI34" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH34, AG34, AF34),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE34, AD34, AC34, AB34),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA34,Z34,Y34, X34),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W34,V34,U34, T34),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S34,R34,Q34, P34),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O34,N34, M34, L34),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K34,J34,C34,D34),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E34,F34,G34,H34),1) )</f>
-        <v>00000000</v>
+        <v>00010821</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4406,7 +4687,9 @@
         <f aca="false">A34+1</f>
         <v>33</v>
       </c>
-      <c r="B35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="C35" s="5" t="n">
         <v>0</v>
       </c>
@@ -4425,7 +4708,7 @@
       <c r="H35" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I35" s="8" t="n">
+      <c r="I35" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C35:H35))</f>
         <v>0</v>
       </c>
@@ -4436,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -4448,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>0</v>
@@ -4504,9 +4787,9 @@
       <c r="AH35" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI35" s="9" t="str">
+      <c r="AI35" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH35, AG35, AF35),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE35, AD35, AC35, AB35),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA35,Z35,Y35, X35),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W35,V35,U35, T35),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S35,R35,Q35, P35),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O35,N35, M35, L35),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K35,J35,C35,D35),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E35,F35,G35,H35),1) )</f>
-        <v>00000000</v>
+        <v>00001100</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4514,9 +4797,11 @@
         <f aca="false">A35+1</f>
         <v>34</v>
       </c>
-      <c r="B36" s="5"/>
+      <c r="B36" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="C36" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>0</v>
@@ -4528,14 +4813,14 @@
         <v>0</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C36:H36))</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -4550,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="5" t="n">
         <v>0</v>
@@ -4574,13 +4859,13 @@
         <v>0</v>
       </c>
       <c r="V36" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="5" t="n">
         <v>0</v>
       </c>
       <c r="X36" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="5" t="n">
         <v>0</v>
@@ -4612,9 +4897,9 @@
       <c r="AH36" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI36" s="9" t="str">
+      <c r="AI36" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH36, AG36, AF36),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE36, AD36, AC36, AB36),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA36,Z36,Y36, X36),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W36,V36,U36, T36),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S36,R36,Q36, P36),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O36,N36, M36, L36),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K36,J36,C36,D36),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E36,F36,G36,H36),1) )</f>
-        <v>00000000</v>
+        <v>00140423</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4622,7 +4907,9 @@
         <f aca="false">A36+1</f>
         <v>35</v>
       </c>
-      <c r="B37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="C37" s="5" t="n">
         <v>0</v>
       </c>
@@ -4641,12 +4928,12 @@
       <c r="H37" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I37" s="8" t="n">
+      <c r="I37" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C37:H37))</f>
         <v>0</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="5" t="n">
         <v>0</v>
@@ -4664,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>0</v>
@@ -4720,9 +5007,9 @@
       <c r="AH37" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI37" s="9" t="str">
+      <c r="AI37" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH37, AG37, AF37),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE37, AD37, AC37, AB37),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA37,Z37,Y37, X37),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W37,V37,U37, T37),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S37,R37,Q37, P37),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O37,N37, M37, L37),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K37,J37,C37,D37),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E37,F37,G37,H37),1) )</f>
-        <v>00000000</v>
+        <v>00001040</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4730,9 +5017,11 @@
         <f aca="false">A37+1</f>
         <v>36</v>
       </c>
-      <c r="B38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="C38" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>0</v>
@@ -4741,20 +5030,20 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C38:H38))</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="5" t="n">
         <v>0</v>
@@ -4781,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" s="5" t="n">
         <v>0</v>
@@ -4828,9 +5117,9 @@
       <c r="AH38" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI38" s="9" t="str">
+      <c r="AI38" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH38, AG38, AF38),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE38, AD38, AC38, AB38),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA38,Z38,Y38, X38),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W38,V38,U38, T38),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S38,R38,Q38, P38),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O38,N38, M38, L38),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K38,J38,C38,D38),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E38,F38,G38,H38),1) )</f>
-        <v>00000000</v>
+        <v>00008065</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4838,9 +5127,11 @@
         <f aca="false">A38+1</f>
         <v>37</v>
       </c>
-      <c r="B39" s="5"/>
+      <c r="B39" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="C39" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>0</v>
@@ -4849,20 +5140,20 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I39" s="8" t="n">
+      <c r="I39" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C39:H39))</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="5" t="n">
         <v>0</v>
@@ -4892,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" s="5" t="n">
         <v>0</v>
@@ -4904,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39" s="5" t="n">
         <v>0</v>
@@ -4936,12 +5227,12 @@
       <c r="AH39" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI39" s="9" t="str">
+      <c r="AI39" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH39, AG39, AF39),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE39, AD39, AC39, AB39),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA39,Z39,Y39, X39),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W39,V39,U39, T39),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S39,R39,Q39, P39),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O39,N39, M39, L39),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K39,J39,C39,D39),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E39,F39,G39,H39),1) )</f>
-        <v>00000000</v>
+        <v>00110066</v>
       </c>
       <c r="AJ39" s="6" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4949,9 +5240,11 @@
         <f aca="false">A39+1</f>
         <v>38</v>
       </c>
-      <c r="B40" s="5"/>
+      <c r="B40" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="C40" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>0</v>
@@ -4960,17 +5253,17 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C40:H40))</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>0</v>
@@ -4979,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -5006,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40" s="5" t="n">
         <v>0</v>
@@ -5021,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="Z40" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40" s="5" t="n">
         <v>0</v>
@@ -5047,9 +5340,9 @@
       <c r="AH40" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI40" s="9" t="str">
+      <c r="AI40" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH40, AG40, AF40),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE40, AD40, AC40, AB40),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA40,Z40,Y40, X40),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W40,V40,U40, T40),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S40,R40,Q40, P40),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O40,N40, M40, L40),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K40,J40,C40,D40),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E40,F40,G40,H40),1) )</f>
-        <v>00000000</v>
+        <v>00420127</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5057,7 +5350,9 @@
         <f aca="false">A40+1</f>
         <v>39</v>
       </c>
-      <c r="B41" s="5"/>
+      <c r="B41" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="C41" s="5" t="n">
         <v>0</v>
       </c>
@@ -5076,7 +5371,7 @@
       <c r="H41" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I41" s="8" t="n">
+      <c r="I41" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C41:H41))</f>
         <v>0</v>
       </c>
@@ -5138,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" s="5" t="n">
         <v>0</v>
@@ -5155,9 +5450,9 @@
       <c r="AH41" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI41" s="9" t="str">
+      <c r="AI41" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH41, AG41, AF41),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE41, AD41, AC41, AB41),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA41,Z41,Y41, X41),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W41,V41,U41, T41),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S41,R41,Q41, P41),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O41,N41, M41, L41),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K41,J41,C41,D41),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E41,F41,G41,H41),1) )</f>
-        <v>00000000</v>
+        <v>02000000</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5165,15 +5460,17 @@
         <f aca="false">A41+1</f>
         <v>40</v>
       </c>
-      <c r="B42" s="5"/>
+      <c r="B42" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="C42" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="5" t="n">
         <v>0</v>
@@ -5182,11 +5479,11 @@
         <v>0</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C42:H42))</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>0</v>
@@ -5263,9 +5560,9 @@
       <c r="AH42" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI42" s="9" t="str">
+      <c r="AI42" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH42, AG42, AF42),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE42, AD42, AC42, AB42),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA42,Z42,Y42, X42),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W42,V42,U42, T42),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S42,R42,Q42, P42),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O42,N42, M42, L42),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K42,J42,C42,D42),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E42,F42,G42,H42),1) )</f>
-        <v>00000000</v>
+        <v>00000029</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5273,7 +5570,9 @@
         <f aca="false">A42+1</f>
         <v>41</v>
       </c>
-      <c r="B43" s="5"/>
+      <c r="B43" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="C43" s="5" t="n">
         <v>0</v>
       </c>
@@ -5292,7 +5591,7 @@
       <c r="H43" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I43" s="8" t="n">
+      <c r="I43" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C43:H43))</f>
         <v>0</v>
       </c>
@@ -5371,7 +5670,7 @@
       <c r="AH43" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI43" s="9" t="str">
+      <c r="AI43" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH43, AG43, AF43),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE43, AD43, AC43, AB43),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA43,Z43,Y43, X43),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W43,V43,U43, T43),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S43,R43,Q43, P43),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O43,N43, M43, L43),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K43,J43,C43,D43),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E43,F43,G43,H43),1) )</f>
         <v>00000000</v>
       </c>
@@ -5381,31 +5680,33 @@
         <f aca="false">A43+1</f>
         <v>42</v>
       </c>
-      <c r="B44" s="5"/>
+      <c r="B44" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="C44" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G44" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C44:H44))</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="5" t="n">
         <v>0</v>
@@ -5432,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" s="5" t="n">
         <v>0</v>
@@ -5447,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44" s="5" t="n">
         <v>0</v>
@@ -5479,9 +5780,9 @@
       <c r="AH44" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI44" s="9" t="str">
+      <c r="AI44" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH44, AG44, AF44),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE44, AD44, AC44, AB44),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA44,Z44,Y44, X44),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W44,V44,U44, T44),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S44,R44,Q44, P44),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O44,N44, M44, L44),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K44,J44,C44,D44),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E44,F44,G44,H44),1) )</f>
-        <v>00000000</v>
+        <v>0010806B</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5489,18 +5790,20 @@
         <f aca="false">A44+1</f>
         <v>43</v>
       </c>
-      <c r="B45" s="5"/>
+      <c r="B45" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="C45" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>0</v>
@@ -5508,12 +5811,12 @@
       <c r="H45" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I45" s="8" t="n">
+      <c r="I45" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C45:H45))</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="5" t="n">
         <v>0</v>
@@ -5543,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" s="5" t="n">
         <v>0</v>
@@ -5558,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="Y45" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z45" s="5" t="n">
         <v>0</v>
@@ -5587,9 +5890,9 @@
       <c r="AH45" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI45" s="9" t="str">
+      <c r="AI45" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH45, AG45, AF45),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE45, AD45, AC45, AB45),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA45,Z45,Y45, X45),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W45,V45,U45, T45),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S45,R45,Q45, P45),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O45,N45, M45, L45),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K45,J45,C45,D45),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E45,F45,G45,H45),1) )</f>
-        <v>00000000</v>
+        <v>0021006C</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5597,7 +5900,9 @@
         <f aca="false">A45+1</f>
         <v>44</v>
       </c>
-      <c r="B46" s="5"/>
+      <c r="B46" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="C46" s="5" t="n">
         <v>0</v>
       </c>
@@ -5616,7 +5921,7 @@
       <c r="H46" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I46" s="8" t="n">
+      <c r="I46" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C46:H46))</f>
         <v>0</v>
       </c>
@@ -5629,16 +5934,16 @@
       <c r="L46" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M46" s="11" t="n">
-        <v>0</v>
+      <c r="M46" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="N46" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="O46" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" s="11" t="n">
+      <c r="O46" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q46" s="5" t="n">
@@ -5650,19 +5955,19 @@
       <c r="S46" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="T46" s="11" t="n">
+      <c r="T46" s="9" t="n">
         <v>0</v>
       </c>
       <c r="U46" s="5" t="n">
         <v>0</v>
       </c>
       <c r="V46" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W46" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="X46" s="11" t="n">
+      <c r="X46" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Y46" s="5" t="n">
@@ -5671,7 +5976,7 @@
       <c r="Z46" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AA46" s="11" t="n">
+      <c r="AA46" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AB46" s="5" t="n">
@@ -5680,24 +5985,24 @@
       <c r="AC46" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AD46" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI46" s="9" t="str">
+      <c r="AD46" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH46, AG46, AF46),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE46, AD46, AC46, AB46),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA46,Z46,Y46, X46),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W46,V46,U46, T46),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S46,R46,Q46, P46),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O46,N46, M46, L46),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K46,J46,C46,D46),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E46,F46,G46,H46),1) )</f>
-        <v>00000000</v>
+        <v>00040200</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5705,28 +6010,30 @@
         <f aca="false">A46+1</f>
         <v>45</v>
       </c>
-      <c r="B47" s="5"/>
+      <c r="B47" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="C47" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I47" s="8" t="n">
+      <c r="I47" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C47:H47))</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>0</v>
@@ -5737,16 +6044,16 @@
       <c r="L47" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M47" s="11" t="n">
+      <c r="M47" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N47" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="O47" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" s="11" t="n">
+      <c r="O47" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q47" s="5" t="n">
@@ -5756,9 +6063,9 @@
         <v>0</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" s="9" t="n">
         <v>0</v>
       </c>
       <c r="U47" s="5" t="n">
@@ -5779,7 +6086,7 @@
       <c r="Z47" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AA47" s="11" t="n">
+      <c r="AA47" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AB47" s="5" t="n">
@@ -5788,24 +6095,24 @@
       <c r="AC47" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AD47" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="9" t="str">
+      <c r="AD47" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH47, AG47, AF47),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE47, AD47, AC47, AB47),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA47,Z47,Y47, X47),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W47,V47,U47, T47),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S47,R47,Q47, P47),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O47,N47, M47, L47),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K47,J47,C47,D47),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E47,F47,G47,H47),1) )</f>
-        <v>00000000</v>
+        <v>0000882E</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5813,28 +6120,30 @@
         <f aca="false">A47+1</f>
         <v>46</v>
       </c>
-      <c r="B48" s="5"/>
+      <c r="B48" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="C48" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C48:H48))</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>0</v>
@@ -5849,12 +6158,12 @@
         <v>0</v>
       </c>
       <c r="N48" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P48" s="11" t="n">
+      <c r="P48" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q48" s="5" t="n">
@@ -5866,8 +6175,8 @@
       <c r="S48" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="T48" s="11" t="n">
-        <v>0</v>
+      <c r="T48" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="U48" s="5" t="n">
         <v>0</v>
@@ -5887,7 +6196,7 @@
       <c r="Z48" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AA48" s="11" t="n">
+      <c r="AA48" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AB48" s="5" t="n">
@@ -5896,24 +6205,24 @@
       <c r="AC48" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AD48" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG48" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI48" s="9" t="str">
+      <c r="AD48" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH48, AG48, AF48),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE48, AD48, AC48, AB48),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA48,Z48,Y48, X48),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W48,V48,U48, T48),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S48,R48,Q48, P48),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O48,N48, M48, L48),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K48,J48,C48,D48),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E48,F48,G48,H48),1) )</f>
-        <v>00000000</v>
+        <v>0001042F</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5921,7 +6230,9 @@
         <f aca="false">A48+1</f>
         <v>47</v>
       </c>
-      <c r="B49" s="5"/>
+      <c r="B49" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="C49" s="5" t="n">
         <v>0</v>
       </c>
@@ -5940,7 +6251,7 @@
       <c r="H49" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I49" s="8" t="n">
+      <c r="I49" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C49:H49))</f>
         <v>0</v>
       </c>
@@ -5951,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -5962,7 +6273,7 @@
       <c r="O49" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P49" s="11" t="n">
+      <c r="P49" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q49" s="5" t="n">
@@ -5981,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="V49" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W49" s="5" t="n">
         <v>0</v>
@@ -5995,7 +6306,7 @@
       <c r="Z49" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AA49" s="11" t="n">
+      <c r="AA49" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AB49" s="5" t="n">
@@ -6004,24 +6315,24 @@
       <c r="AC49" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AD49" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI49" s="9" t="str">
+      <c r="AD49" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH49, AG49, AF49),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE49, AD49, AC49, AB49),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA49,Z49,Y49, X49),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W49,V49,U49, T49),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S49,R49,Q49, P49),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O49,N49, M49, L49),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K49,J49,C49,D49),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E49,F49,G49,H49),1) )</f>
-        <v>00000000</v>
+        <v>00040100</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6047,7 +6358,7 @@
       <c r="H50" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I50" s="8" t="n">
+      <c r="I50" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C50:H50))</f>
         <v>0</v>
       </c>
@@ -6060,7 +6371,7 @@
       <c r="L50" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M50" s="11" t="n">
+      <c r="M50" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N50" s="5" t="n">
@@ -6069,7 +6380,7 @@
       <c r="O50" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P50" s="11" t="n">
+      <c r="P50" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q50" s="5" t="n">
@@ -6111,22 +6422,22 @@
       <c r="AC50" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AD50" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH50" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI50" s="9" t="str">
+      <c r="AD50" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH50, AG50, AF50),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE50, AD50, AC50, AB50),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA50,Z50,Y50, X50),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W50,V50,U50, T50),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S50,R50,Q50, P50),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O50,N50, M50, L50),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K50,J50,C50,D50),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E50,F50,G50,H50),1) )</f>
         <v>00000000</v>
       </c>
@@ -6155,7 +6466,7 @@
       <c r="H51" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I51" s="8" t="n">
+      <c r="I51" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C51:H51))</f>
         <v>0</v>
       </c>
@@ -6168,7 +6479,7 @@
       <c r="L51" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M51" s="11" t="n">
+      <c r="M51" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N51" s="5" t="n">
@@ -6177,7 +6488,7 @@
       <c r="O51" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P51" s="11" t="n">
+      <c r="P51" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q51" s="5" t="n">
@@ -6219,22 +6530,22 @@
       <c r="AC51" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AD51" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI51" s="9" t="str">
+      <c r="AD51" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH51, AG51, AF51),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE51, AD51, AC51, AB51),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA51,Z51,Y51, X51),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W51,V51,U51, T51),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S51,R51,Q51, P51),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O51,N51, M51, L51),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K51,J51,C51,D51),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E51,F51,G51,H51),1) )</f>
         <v>00000000</v>
       </c>
@@ -6263,7 +6574,7 @@
       <c r="H52" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I52" s="8" t="n">
+      <c r="I52" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C52:H52))</f>
         <v>0</v>
       </c>
@@ -6276,7 +6587,7 @@
       <c r="L52" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M52" s="11" t="n">
+      <c r="M52" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N52" s="5" t="n">
@@ -6285,7 +6596,7 @@
       <c r="O52" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P52" s="11" t="n">
+      <c r="P52" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q52" s="5" t="n">
@@ -6327,22 +6638,22 @@
       <c r="AC52" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AD52" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE52" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF52" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG52" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH52" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="9" t="str">
+      <c r="AD52" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH52, AG52, AF52),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE52, AD52, AC52, AB52),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA52,Z52,Y52, X52),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W52,V52,U52, T52),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S52,R52,Q52, P52),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O52,N52, M52, L52),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K52,J52,C52,D52),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E52,F52,G52,H52),1) )</f>
         <v>00000000</v>
       </c>
@@ -6371,7 +6682,7 @@
       <c r="H53" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I53" s="8" t="n">
+      <c r="I53" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C53:H53))</f>
         <v>0</v>
       </c>
@@ -6384,7 +6695,7 @@
       <c r="L53" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M53" s="11" t="n">
+      <c r="M53" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N53" s="5" t="n">
@@ -6393,7 +6704,7 @@
       <c r="O53" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P53" s="11" t="n">
+      <c r="P53" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q53" s="5" t="n">
@@ -6435,22 +6746,22 @@
       <c r="AC53" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AD53" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE53" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF53" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG53" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH53" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI53" s="9" t="str">
+      <c r="AD53" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH53, AG53, AF53),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE53, AD53, AC53, AB53),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA53,Z53,Y53, X53),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W53,V53,U53, T53),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S53,R53,Q53, P53),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O53,N53, M53, L53),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K53,J53,C53,D53),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E53,F53,G53,H53),1) )</f>
         <v>00000000</v>
       </c>
@@ -6479,7 +6790,7 @@
       <c r="H54" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I54" s="8" t="n">
+      <c r="I54" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C54:H54))</f>
         <v>0</v>
       </c>
@@ -6501,7 +6812,7 @@
       <c r="O54" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P54" s="11" t="n">
+      <c r="P54" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q54" s="5" t="n">
@@ -6543,22 +6854,22 @@
       <c r="AC54" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AD54" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE54" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF54" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG54" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH54" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI54" s="9" t="str">
+      <c r="AD54" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH54, AG54, AF54),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE54, AD54, AC54, AB54),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA54,Z54,Y54, X54),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W54,V54,U54, T54),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S54,R54,Q54, P54),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O54,N54, M54, L54),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K54,J54,C54,D54),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E54,F54,G54,H54),1) )</f>
         <v>00000000</v>
       </c>
@@ -6587,7 +6898,7 @@
       <c r="H55" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I55" s="8" t="n">
+      <c r="I55" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C55:H55))</f>
         <v>0</v>
       </c>
@@ -6651,22 +6962,22 @@
       <c r="AC55" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AD55" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE55" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF55" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG55" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH55" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI55" s="9" t="str">
+      <c r="AD55" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH55, AG55, AF55),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE55, AD55, AC55, AB55),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA55,Z55,Y55, X55),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W55,V55,U55, T55),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S55,R55,Q55, P55),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O55,N55, M55, L55),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K55,J55,C55,D55),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E55,F55,G55,H55),1) )</f>
         <v>00000000</v>
       </c>
@@ -6695,7 +7006,7 @@
       <c r="H56" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I56" s="8" t="n">
+      <c r="I56" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C56:H56))</f>
         <v>0</v>
       </c>
@@ -6759,22 +7070,22 @@
       <c r="AC56" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AD56" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE56" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF56" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG56" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH56" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI56" s="9" t="str">
+      <c r="AD56" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH56, AG56, AF56),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE56, AD56, AC56, AB56),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA56,Z56,Y56, X56),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W56,V56,U56, T56),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S56,R56,Q56, P56),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O56,N56, M56, L56),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K56,J56,C56,D56),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E56,F56,G56,H56),1) )</f>
         <v>00000000</v>
       </c>
@@ -6803,7 +7114,7 @@
       <c r="H57" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I57" s="8" t="n">
+      <c r="I57" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getBin2Dec(_xlfn.CONCAT(C57:H57))</f>
         <v>0</v>
       </c>
@@ -6867,22 +7178,22 @@
       <c r="AC57" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AD57" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE57" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF57" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG57" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH57" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI57" s="9" t="str">
+      <c r="AD57" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="8" t="str">
         <f aca="false">_xlfn.CONCAT(     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AH57, AG57, AF57),1),       com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AE57, AD57, AC57, AB57),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(AA57,Z57,Y57, X57),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(W57,V57,U57, T57),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(S57,R57,Q57, P57),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(O57,N57, M57, L57),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(K57,J57,C57,D57),1),     com.sun.star.sheet.addin.Analysis.getBin2Hex(_xlfn.CONCAT(E57,F57,G57,H57),1) )</f>
         <v>00000000</v>
       </c>
@@ -6891,448 +7202,573 @@
       <c r="A58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="M59" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="12"/>
-      <c r="R59" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
-      <c r="U59" s="13"/>
-      <c r="V59" s="13"/>
-      <c r="W59" s="14"/>
-      <c r="X59" s="14"/>
-      <c r="Y59" s="14"/>
-      <c r="Z59" s="14"/>
-      <c r="AA59" s="14"/>
-      <c r="AB59" s="14"/>
-      <c r="AC59" s="14"/>
-      <c r="AD59" s="14"/>
-      <c r="AE59" s="14"/>
-      <c r="AF59" s="14"/>
-      <c r="AG59" s="14"/>
-      <c r="AH59" s="14"/>
-      <c r="AI59" s="14"/>
-      <c r="AJ59" s="14"/>
-      <c r="AK59" s="14"/>
-      <c r="AL59" s="14"/>
-      <c r="AM59" s="14"/>
-      <c r="AN59" s="14"/>
-      <c r="AO59" s="14"/>
-      <c r="AP59" s="14"/>
-      <c r="AQ59" s="14"/>
+      <c r="B59" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="M59" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="R59" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
+      <c r="Z59" s="12"/>
+      <c r="AA59" s="12"/>
+      <c r="AB59" s="12"/>
+      <c r="AC59" s="12"/>
+      <c r="AD59" s="12"/>
+      <c r="AE59" s="12"/>
+      <c r="AF59" s="12"/>
+      <c r="AG59" s="12"/>
+      <c r="AH59" s="12"/>
+      <c r="AI59" s="12"/>
+      <c r="AJ59" s="12"/>
+      <c r="AK59" s="12"/>
+      <c r="AL59" s="12"/>
+      <c r="AM59" s="12"/>
+      <c r="AN59" s="12"/>
+      <c r="AO59" s="12"/>
+      <c r="AP59" s="12"/>
+      <c r="AQ59" s="12"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
+      <c r="B60" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
       <c r="I60" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J60" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="M60" s="15" t="s">
-        <v>44</v>
+      <c r="J60" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="M60" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P60" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="R60" s="13"/>
-      <c r="S60" s="13"/>
-      <c r="T60" s="13"/>
-      <c r="U60" s="13"/>
-      <c r="V60" s="13"/>
-      <c r="W60" s="14"/>
-      <c r="X60" s="14"/>
-      <c r="Y60" s="14"/>
-      <c r="Z60" s="14"/>
-      <c r="AA60" s="14"/>
-      <c r="AB60" s="14"/>
-      <c r="AC60" s="14"/>
-      <c r="AD60" s="14"/>
-      <c r="AE60" s="14"/>
-      <c r="AF60" s="14"/>
-      <c r="AG60" s="14"/>
-      <c r="AH60" s="14"/>
-      <c r="AI60" s="14"/>
-      <c r="AJ60" s="14"/>
-      <c r="AK60" s="14"/>
-      <c r="AL60" s="14"/>
-      <c r="AM60" s="14"/>
-      <c r="AN60" s="14"/>
-      <c r="AO60" s="14"/>
-      <c r="AP60" s="14"/>
-      <c r="AQ60" s="14"/>
+        <v>84</v>
+      </c>
+      <c r="P60" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="12"/>
+      <c r="AA60" s="12"/>
+      <c r="AB60" s="12"/>
+      <c r="AC60" s="12"/>
+      <c r="AD60" s="12"/>
+      <c r="AE60" s="12"/>
+      <c r="AF60" s="12"/>
+      <c r="AG60" s="12"/>
+      <c r="AH60" s="12"/>
+      <c r="AI60" s="12"/>
+      <c r="AJ60" s="12"/>
+      <c r="AK60" s="12"/>
+      <c r="AL60" s="12"/>
+      <c r="AM60" s="12"/>
+      <c r="AN60" s="12"/>
+      <c r="AO60" s="12"/>
+      <c r="AP60" s="12"/>
+      <c r="AQ60" s="12"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="18"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="20" t="str">
+      <c r="B61" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J61" s="18" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C61)</f>
         <v>0</v>
       </c>
-      <c r="M61" s="21"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="20" t="str">
+      <c r="K61" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="M61" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="N61" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="O61" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="P61" s="18" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(O61,2)</f>
-        <v>00</v>
-      </c>
-      <c r="R61" s="13"/>
-      <c r="S61" s="13"/>
-      <c r="T61" s="13"/>
-      <c r="U61" s="13"/>
-      <c r="V61" s="13"/>
-      <c r="W61" s="14"/>
-      <c r="X61" s="14"/>
-      <c r="Y61" s="14"/>
-      <c r="Z61" s="14"/>
-      <c r="AA61" s="14"/>
-      <c r="AB61" s="14"/>
-      <c r="AC61" s="14"/>
-      <c r="AD61" s="14"/>
-      <c r="AE61" s="14"/>
-      <c r="AF61" s="14"/>
-      <c r="AG61" s="14"/>
-      <c r="AH61" s="14"/>
-      <c r="AI61" s="14"/>
-      <c r="AJ61" s="14"/>
-      <c r="AK61" s="14"/>
-      <c r="AL61" s="14"/>
-      <c r="AM61" s="14"/>
-      <c r="AN61" s="14"/>
-      <c r="AO61" s="14"/>
-      <c r="AP61" s="14"/>
-      <c r="AQ61" s="14"/>
+        <v>0C</v>
+      </c>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="12"/>
+      <c r="AC61" s="12"/>
+      <c r="AD61" s="12"/>
+      <c r="AE61" s="12"/>
+      <c r="AF61" s="12"/>
+      <c r="AG61" s="12"/>
+      <c r="AH61" s="12"/>
+      <c r="AI61" s="12"/>
+      <c r="AJ61" s="12"/>
+      <c r="AK61" s="12"/>
+      <c r="AL61" s="12"/>
+      <c r="AM61" s="12"/>
+      <c r="AN61" s="12"/>
+      <c r="AO61" s="12"/>
+      <c r="AP61" s="12"/>
+      <c r="AQ61" s="12"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="23"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="26" t="str">
+      <c r="B62" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J62" s="24" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C62)</f>
-        <v>0</v>
-      </c>
-      <c r="M62" s="21"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="20" t="str">
+        <v>20</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="M62" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="N62" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="O62" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="P62" s="18" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(O62,2)</f>
-        <v>00</v>
-      </c>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="13"/>
-      <c r="U62" s="13"/>
-      <c r="V62" s="13"/>
-      <c r="W62" s="14"/>
-      <c r="X62" s="14"/>
-      <c r="Y62" s="14"/>
-      <c r="Z62" s="14"/>
-      <c r="AA62" s="14"/>
-      <c r="AB62" s="14"/>
-      <c r="AC62" s="14"/>
-      <c r="AD62" s="14"/>
-      <c r="AE62" s="14"/>
-      <c r="AF62" s="14"/>
-      <c r="AG62" s="14"/>
-      <c r="AH62" s="14"/>
-      <c r="AI62" s="14"/>
-      <c r="AJ62" s="14"/>
-      <c r="AK62" s="14"/>
-      <c r="AL62" s="14"/>
-      <c r="AM62" s="14"/>
-      <c r="AN62" s="14"/>
-      <c r="AO62" s="14"/>
-      <c r="AP62" s="14"/>
-      <c r="AQ62" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="12"/>
+      <c r="AC62" s="12"/>
+      <c r="AD62" s="12"/>
+      <c r="AE62" s="12"/>
+      <c r="AF62" s="12"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="12"/>
+      <c r="AJ62" s="12"/>
+      <c r="AK62" s="12"/>
+      <c r="AL62" s="12"/>
+      <c r="AM62" s="12"/>
+      <c r="AN62" s="12"/>
+      <c r="AO62" s="12"/>
+      <c r="AP62" s="12"/>
+      <c r="AQ62" s="12"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M63" s="21"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="20" t="str">
+      <c r="M63" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="N63" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="O63" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="P63" s="18" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(O63,2)</f>
-        <v>00</v>
-      </c>
-      <c r="R63" s="13"/>
-      <c r="S63" s="13"/>
-      <c r="T63" s="13"/>
-      <c r="U63" s="13"/>
-      <c r="V63" s="13"/>
+        <v>0F</v>
+      </c>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
       <c r="AK63" s="5"/>
       <c r="AL63" s="5"/>
       <c r="AM63" s="5"/>
       <c r="AN63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M64" s="21"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="20" t="str">
+      <c r="M64" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="N64" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="O64" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="P64" s="18" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(O64,2)</f>
-        <v>00</v>
-      </c>
-      <c r="R64" s="13"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="13"/>
-      <c r="U64" s="13"/>
-      <c r="V64" s="13"/>
+        <v>14</v>
+      </c>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
       <c r="AL64" s="5"/>
       <c r="AM64" s="5"/>
       <c r="AN64" s="5"/>
       <c r="AO64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M65" s="21"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="20" t="str">
+      <c r="M65" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="N65" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="O65" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="P65" s="18" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(O65,2)</f>
-        <v>00</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="20" t="str">
+      <c r="B66" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="M66" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="N66" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="O66" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="P66" s="18" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(O66,2)</f>
-        <v>00</v>
-      </c>
-      <c r="R66" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="S66" s="27"/>
-      <c r="T66" s="27"/>
-      <c r="U66" s="27"/>
-      <c r="V66" s="27"/>
+        <v>1C</v>
+      </c>
+      <c r="R66" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="S66" s="25"/>
+      <c r="T66" s="25"/>
+      <c r="U66" s="25"/>
+      <c r="V66" s="25"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
+      <c r="B67" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
       <c r="I67" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J67" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="M67" s="21"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="20" t="str">
+      <c r="J67" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="M67" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="N67" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="O67" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="P67" s="18" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(O67,2)</f>
-        <v>00</v>
-      </c>
-      <c r="R67" s="27"/>
-      <c r="S67" s="27"/>
-      <c r="T67" s="27"/>
-      <c r="U67" s="27"/>
-      <c r="V67" s="27"/>
+        <v>22</v>
+      </c>
+      <c r="R67" s="25"/>
+      <c r="S67" s="25"/>
+      <c r="T67" s="25"/>
+      <c r="U67" s="25"/>
+      <c r="V67" s="25"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B68" s="28"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="26" t="str">
+      <c r="B68" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J68" s="24" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C68)</f>
-        <v>0</v>
-      </c>
-      <c r="M68" s="21"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="M68" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="N68" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="O68" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="P68" s="18" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(O68,2)</f>
-        <v>00</v>
-      </c>
-      <c r="R68" s="27"/>
-      <c r="S68" s="27"/>
-      <c r="T68" s="27"/>
-      <c r="U68" s="27"/>
-      <c r="V68" s="27"/>
+        <v>10</v>
+      </c>
+      <c r="R68" s="25"/>
+      <c r="S68" s="25"/>
+      <c r="T68" s="25"/>
+      <c r="U68" s="25"/>
+      <c r="V68" s="25"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="29"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26" t="str">
+      <c r="B69" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="J69" s="24" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C69)</f>
         <v>0</v>
       </c>
-      <c r="M69" s="21"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="20" t="str">
+      <c r="M69" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="N69" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="O69" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="P69" s="18" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(O69,2)</f>
-        <v>00</v>
-      </c>
-      <c r="R69" s="27"/>
-      <c r="S69" s="27"/>
-      <c r="T69" s="27"/>
-      <c r="U69" s="27"/>
-      <c r="V69" s="27"/>
+        <v>24</v>
+      </c>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="25"/>
+      <c r="V69" s="25"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M70" s="21"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="20" t="str">
+      <c r="M70" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="N70" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="O70" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="P70" s="18" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(O70,2)</f>
-        <v>00</v>
-      </c>
-      <c r="R70" s="27"/>
-      <c r="S70" s="27"/>
-      <c r="T70" s="27"/>
-      <c r="U70" s="27"/>
-      <c r="V70" s="27"/>
+        <v>2D</v>
+      </c>
+      <c r="R70" s="25"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="25"/>
+      <c r="U70" s="25"/>
+      <c r="V70" s="25"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M71" s="21"/>
-      <c r="N71" s="22"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="20" t="str">
+      <c r="M71" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N71" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="O71" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="P71" s="18" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(O71,2)</f>
-        <v>00</v>
-      </c>
-      <c r="R71" s="27"/>
-      <c r="S71" s="27"/>
-      <c r="T71" s="27"/>
-      <c r="U71" s="27"/>
-      <c r="V71" s="27"/>
+        <v>28</v>
+      </c>
+      <c r="R71" s="25"/>
+      <c r="S71" s="25"/>
+      <c r="T71" s="25"/>
+      <c r="U71" s="25"/>
+      <c r="V71" s="25"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M72" s="21"/>
-      <c r="N72" s="22"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="20" t="str">
+      <c r="M72" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="N72" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="O72" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="P72" s="18" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(O72,2)</f>
-        <v>00</v>
+        <v>2A</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M73" s="21"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="20" t="str">
+      <c r="M73" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="N73" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="O73" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P73" s="18" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(O73,2)</f>
-        <v>00</v>
+        <v>03</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M74" s="21"/>
-      <c r="N74" s="22"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="20" t="str">
+      <c r="M74" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="N74" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="O74" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="P74" s="18" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(O74,2)</f>
-        <v>00</v>
+        <v>04</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M75" s="21"/>
-      <c r="N75" s="22"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="20" t="str">
+      <c r="M75" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="N75" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="O75" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="P75" s="18" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(O75,2)</f>
-        <v>00</v>
+        <v>05</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M76" s="21"/>
-      <c r="N76" s="22"/>
-      <c r="P76" s="20" t="str">
+      <c r="M76" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="N76" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="O76" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P76" s="18" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(O76,2)</f>
-        <v>00</v>
+        <v>09</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M77" s="21"/>
-      <c r="P77" s="30"/>
+      <c r="M77" s="19"/>
+      <c r="P77" s="28"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M78" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="N78" s="31"/>
-      <c r="O78" s="31"/>
-      <c r="P78" s="31"/>
+      <c r="M78" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="N78" s="29"/>
+      <c r="O78" s="29"/>
+      <c r="P78" s="29"/>
       <c r="AS78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M79" s="31"/>
-      <c r="N79" s="31"/>
-      <c r="O79" s="31"/>
-      <c r="P79" s="31"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="29"/>
+      <c r="O79" s="29"/>
+      <c r="P79" s="29"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8282,7 +8718,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:AH3 AD4:AH45 J3:AC45">
+  <conditionalFormatting sqref="J2:AH3 AH20:AH45 J3:AC16 J22:AG45 AD4:AH16 J17:AH21">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>0</formula>
     </cfRule>
@@ -8290,7 +8726,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:AC57">
+  <conditionalFormatting sqref="J23:AC57">
     <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>0</formula>
     </cfRule>
@@ -8298,7 +8734,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD3:AH13 AD15:AH57">
+  <conditionalFormatting sqref="AD3:AH13 AH20:AH57 AD15:AH16 AD22:AG57 AD18:AH18 AD20:AH21">
     <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>0</formula>
     </cfRule>

--- a/projects/cs2200-project-2-early/microcode.xlsx
+++ b/projects/cs2200-project-2-early/microcode.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="129">
   <si>
     <t xml:space="preserve">Index</t>
   </si>
@@ -395,7 +395,7 @@
     <t xml:space="preserve">0111</t>
   </si>
   <si>
-    <t xml:space="preserve">what?</t>
+    <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">blt</t>
@@ -689,7 +689,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -729,7 +729,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -753,7 +753,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -914,13 +914,13 @@
   </sheetPr>
   <dimension ref="A1:AS1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AC40" activeCellId="0" sqref="AC40"/>
+      <selection pane="bottomLeft" activeCell="K67" activeCellId="0" sqref="K67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.79"/>
@@ -7577,8 +7577,7 @@
       <c r="I68" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J68" s="24" t="str">
-        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C68)</f>
+      <c r="J68" s="24" t="n">
         <v>1</v>
       </c>
       <c r="M68" s="19" t="s">
@@ -7604,18 +7603,20 @@
       <c r="B69" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C69" s="22"/>
+      <c r="C69" s="22" t="s">
+        <v>111</v>
+      </c>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
       <c r="G69" s="22"/>
       <c r="H69" s="22"/>
       <c r="I69" s="23" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="J69" s="24" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C69)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M69" s="19" t="s">
         <v>112</v>
